--- a/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B337BE-9F2F-492F-846C-D5B22B02E35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FC9E03-E56D-432D-9E17-59EDD2E0237E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1860,7 +1860,7 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4972,7 +4972,7 @@
         <v>12</v>
       </c>
       <c r="K68" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="12" t="s">
         <v>12</v>

--- a/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FC9E03-E56D-432D-9E17-59EDD2E0237E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAA8069-D384-4F1E-8BCD-7F28A1EDEE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12380" yWindow="390" windowWidth="28730" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -864,7 +864,687 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="88">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -873,694 +1553,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1583,9 +1575,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="86" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1857,10 +1849,10 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="15" ySplit="2" topLeftCell="P33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
+      <selection pane="bottomRight" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2032,7 +2024,7 @@
         <v>12</v>
       </c>
       <c r="O4" s="11" t="str">
-        <f t="shared" ref="O4:O64" si="0">IF(OR(AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-"),AND(M4&gt;1,M4&lt;&gt;"-"),AND(N4&gt;1,N4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="O4:O49" si="0">IF(OR(AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-"),AND(M4&gt;1,M4&lt;&gt;"-"),AND(N4&gt;1,N4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2219,7 +2211,7 @@
         <v>2007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>16</v>
@@ -2238,7 +2230,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>12</v>
@@ -2256,7 +2248,7 @@
         <v>12</v>
       </c>
       <c r="O9" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K9&gt;1,K9&lt;&gt;"-"),AND(L9&gt;1,L9&lt;&gt;"-"),AND(M9&gt;1,M9&lt;&gt;"-"),AND(N9&gt;1,N9&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2265,7 +2257,7 @@
         <v>2007</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>16</v>
@@ -2284,7 +2276,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>12</v>
@@ -2302,7 +2294,7 @@
         <v>12</v>
       </c>
       <c r="O10" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K10&gt;1,K10&lt;&gt;"-"),AND(L10&gt;1,L10&lt;&gt;"-"),AND(M10&gt;1,M10&lt;&gt;"-"),AND(N10&gt;1,N10&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2589,7 +2581,7 @@
         <v>2012</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>88</v>
@@ -2602,7 +2594,7 @@
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>12</v>
@@ -2626,7 +2618,7 @@
         <v>12</v>
       </c>
       <c r="O17" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K17&gt;1,K17&lt;&gt;"-"),AND(L17&gt;1,L17&lt;&gt;"-"),AND(M17&gt;1,M17&lt;&gt;"-"),AND(N17&gt;1,N17&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2672,7 +2664,7 @@
         <v>12</v>
       </c>
       <c r="O18" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K18&gt;1,K18&lt;&gt;"-"),AND(L18&gt;1,L18&lt;&gt;"-"),AND(M18&gt;1,M18&lt;&gt;"-"),AND(N18&gt;1,N18&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2681,7 +2673,7 @@
         <v>2012</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>88</v>
@@ -2694,7 +2686,7 @@
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>12</v>
@@ -2718,7 +2710,7 @@
         <v>12</v>
       </c>
       <c r="O19" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K19&gt;1,K19&lt;&gt;"-"),AND(L19&gt;1,L19&lt;&gt;"-"),AND(M19&gt;1,M19&lt;&gt;"-"),AND(N19&gt;1,N19&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2865,7 +2857,7 @@
         <v>2015</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>88</v>
@@ -2878,7 +2870,7 @@
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>12</v>
@@ -2902,7 +2894,7 @@
         <v>12</v>
       </c>
       <c r="O23" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K23&gt;1,K23&lt;&gt;"-"),AND(L23&gt;1,L23&lt;&gt;"-"),AND(M23&gt;1,M23&lt;&gt;"-"),AND(N23&gt;1,N23&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2911,7 +2903,7 @@
         <v>2015</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>88</v>
@@ -2924,7 +2916,7 @@
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>12</v>
@@ -2948,7 +2940,7 @@
         <v>12</v>
       </c>
       <c r="O24" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K24&gt;1,K24&lt;&gt;"-"),AND(L24&gt;1,L24&lt;&gt;"-"),AND(M24&gt;1,M24&lt;&gt;"-"),AND(N24&gt;1,N24&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2994,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="O25" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K25&gt;1,K25&lt;&gt;"-"),AND(L25&gt;1,L25&lt;&gt;"-"),AND(M25&gt;1,M25&lt;&gt;"-"),AND(N25&gt;1,N25&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3748,11 +3740,11 @@
         <v>21</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F42" s="8"/>
-      <c r="G42" s="10" t="s">
-        <v>65</v>
+      <c r="G42" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>12</v>
@@ -3763,8 +3755,8 @@
       <c r="J42" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K42" s="12" t="s">
-        <v>12</v>
+      <c r="K42" s="12">
+        <v>2</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>12</v>
@@ -3776,8 +3768,8 @@
         <v>12</v>
       </c>
       <c r="O42" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(OR(AND(K42&gt;1,K42&lt;&gt;"-"),AND(L42&gt;1,L42&lt;&gt;"-"),AND(M42&gt;1,M42&lt;&gt;"-"),AND(N42&gt;1,N42&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -3794,11 +3786,11 @@
         <v>21</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="1" t="s">
-        <v>114</v>
+      <c r="G43" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>12</v>
@@ -3809,8 +3801,8 @@
       <c r="J43" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K43" s="12">
-        <v>2</v>
+      <c r="K43" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="L43" s="12" t="s">
         <v>12</v>
@@ -3822,8 +3814,8 @@
         <v>12</v>
       </c>
       <c r="O43" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Can exchange</v>
+        <f>IF(OR(AND(K43&gt;1,K43&lt;&gt;"-"),AND(L43&gt;1,L43&lt;&gt;"-"),AND(M43&gt;1,M43&lt;&gt;"-"),AND(N43&gt;1,N43&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -4148,7 +4140,7 @@
         <v>12</v>
       </c>
       <c r="O50" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K50&gt;1,K50&lt;&gt;"-"),AND(L50&gt;1,L50&lt;&gt;"-"),AND(M50&gt;1,M50&lt;&gt;"-"),AND(N50&gt;1,N50&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4194,7 +4186,7 @@
         <v>12</v>
       </c>
       <c r="O51" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K51&gt;1,K51&lt;&gt;"-"),AND(L51&gt;1,L51&lt;&gt;"-"),AND(M51&gt;1,M51&lt;&gt;"-"),AND(N51&gt;1,N51&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4242,7 +4234,7 @@
         <v>12</v>
       </c>
       <c r="O52" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K52&gt;1,K52&lt;&gt;"-"),AND(L52&gt;1,L52&lt;&gt;"-"),AND(M52&gt;1,M52&lt;&gt;"-"),AND(N52&gt;1,N52&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4290,7 +4282,7 @@
         <v>12</v>
       </c>
       <c r="O53" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K53&gt;1,K53&lt;&gt;"-"),AND(L53&gt;1,L53&lt;&gt;"-"),AND(M53&gt;1,M53&lt;&gt;"-"),AND(N53&gt;1,N53&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4336,7 +4328,7 @@
         <v>12</v>
       </c>
       <c r="O54" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K54&gt;1,K54&lt;&gt;"-"),AND(L54&gt;1,L54&lt;&gt;"-"),AND(M54&gt;1,M54&lt;&gt;"-"),AND(N54&gt;1,N54&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4384,7 +4376,7 @@
         <v>12</v>
       </c>
       <c r="O55" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K55&gt;1,K55&lt;&gt;"-"),AND(L55&gt;1,L55&lt;&gt;"-"),AND(M55&gt;1,M55&lt;&gt;"-"),AND(N55&gt;1,N55&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4430,7 +4422,7 @@
         <v>12</v>
       </c>
       <c r="O56" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K56&gt;1,K56&lt;&gt;"-"),AND(L56&gt;1,L56&lt;&gt;"-"),AND(M56&gt;1,M56&lt;&gt;"-"),AND(N56&gt;1,N56&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4476,7 +4468,7 @@
         <v>12</v>
       </c>
       <c r="O57" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K57&gt;1,K57&lt;&gt;"-"),AND(L57&gt;1,L57&lt;&gt;"-"),AND(M57&gt;1,M57&lt;&gt;"-"),AND(N57&gt;1,N57&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4524,7 +4516,7 @@
         <v>12</v>
       </c>
       <c r="O58" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K58&gt;1,K58&lt;&gt;"-"),AND(L58&gt;1,L58&lt;&gt;"-"),AND(M58&gt;1,M58&lt;&gt;"-"),AND(N58&gt;1,N58&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4572,7 +4564,7 @@
         <v>12</v>
       </c>
       <c r="O59" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K59&gt;1,K59&lt;&gt;"-"),AND(L59&gt;1,L59&lt;&gt;"-"),AND(M59&gt;1,M59&lt;&gt;"-"),AND(N59&gt;1,N59&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4618,7 +4610,7 @@
         <v>12</v>
       </c>
       <c r="O60" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K60&gt;1,K60&lt;&gt;"-"),AND(L60&gt;1,L60&lt;&gt;"-"),AND(M60&gt;1,M60&lt;&gt;"-"),AND(N60&gt;1,N60&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4666,7 +4658,7 @@
         <v>12</v>
       </c>
       <c r="O61" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K61&gt;1,K61&lt;&gt;"-"),AND(L61&gt;1,L61&lt;&gt;"-"),AND(M61&gt;1,M61&lt;&gt;"-"),AND(N61&gt;1,N61&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4675,7 +4667,7 @@
         <v>2022</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>88</v>
@@ -4712,7 +4704,7 @@
         <v>12</v>
       </c>
       <c r="O62" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K62&gt;1,K62&lt;&gt;"-"),AND(L62&gt;1,L62&lt;&gt;"-"),AND(M62&gt;1,M62&lt;&gt;"-"),AND(N62&gt;1,N62&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4721,7 +4713,7 @@
         <v>2022</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>16</v>
@@ -4740,7 +4732,7 @@
         <v>12</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="J63" s="9" t="s">
         <v>12</v>
@@ -4758,7 +4750,7 @@
         <v>12</v>
       </c>
       <c r="O63" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K63&gt;1,K63&lt;&gt;"-"),AND(L63&gt;1,L63&lt;&gt;"-"),AND(M63&gt;1,M63&lt;&gt;"-"),AND(N63&gt;1,N63&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4767,7 +4759,7 @@
         <v>2022</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>106</v>
@@ -4802,7 +4794,7 @@
         <v>12</v>
       </c>
       <c r="O64" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K64&gt;1,K64&lt;&gt;"-"),AND(L64&gt;1,L64&lt;&gt;"-"),AND(M64&gt;1,M64&lt;&gt;"-"),AND(N64&gt;1,N64&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4894,7 +4886,7 @@
         <v>12</v>
       </c>
       <c r="O66" s="11" t="str">
-        <f t="shared" ref="O66:O68" si="2">IF(OR(AND(K66&gt;1,K66&lt;&gt;"-"),AND(L66&gt;1,L66&lt;&gt;"-"),AND(M66&gt;1,M66&lt;&gt;"-"),AND(N66&gt;1,N66&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="O66:O67" si="2">IF(OR(AND(K66&gt;1,K66&lt;&gt;"-"),AND(L66&gt;1,L66&lt;&gt;"-"),AND(M66&gt;1,M66&lt;&gt;"-"),AND(N66&gt;1,N66&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4947,7 +4939,7 @@
         <v>2022</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>88</v>
@@ -4984,7 +4976,7 @@
         <v>12</v>
       </c>
       <c r="O68" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(AND(K68&gt;1,K68&lt;&gt;"-"),AND(L68&gt;1,L68&lt;&gt;"-"),AND(M68&gt;1,M68&lt;&gt;"-"),AND(N68&gt;1,N68&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4993,7 +4985,7 @@
         <v>2022</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>16</v>
@@ -5012,7 +5004,7 @@
         <v>12</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>12</v>
@@ -5030,7 +5022,7 @@
         <v>12</v>
       </c>
       <c r="O69" s="11" t="str">
-        <f t="shared" ref="O69:O71" si="3">IF(OR(AND(K69&gt;1,K69&lt;&gt;"-"),AND(L69&gt;1,L69&lt;&gt;"-"),AND(M69&gt;1,M69&lt;&gt;"-"),AND(N69&gt;1,N69&lt;&gt;"-")),"Can exchange","")</f>
+        <f>IF(OR(AND(K69&gt;1,K69&lt;&gt;"-"),AND(L69&gt;1,L69&lt;&gt;"-"),AND(M69&gt;1,M69&lt;&gt;"-"),AND(N69&gt;1,N69&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -5039,7 +5031,7 @@
         <v>2022</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>106</v>
@@ -5074,7 +5066,7 @@
         <v>12</v>
       </c>
       <c r="O70" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(AND(K70&gt;1,K70&lt;&gt;"-"),AND(L70&gt;1,L70&lt;&gt;"-"),AND(M70&gt;1,M70&lt;&gt;"-"),AND(N70&gt;1,N70&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -5120,7 +5112,7 @@
         <v>12</v>
       </c>
       <c r="O71" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O71" si="3">IF(OR(AND(K71&gt;1,K71&lt;&gt;"-"),AND(L71&gt;1,L71&lt;&gt;"-"),AND(M71&gt;1,M71&lt;&gt;"-"),AND(N71&gt;1,N71&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -5455,7 +5447,7 @@
     <mergeCell ref="K1:N1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="K41:M41 K40:L40 N40:N64 K3:N39">
+  <conditionalFormatting sqref="K41:M41 K40:L40 K3:N39 N40:N61 N68:N70 L61:M61 L68:M68">
     <cfRule type="colorScale" priority="196">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5467,8 +5459,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:M41 K40:L40 N40:N64 K3:N39">
-    <cfRule type="containsText" dxfId="88" priority="195" operator="containsText" text="*-">
+  <conditionalFormatting sqref="K41:M41 K40:L40 K3:N39 N40:N61 N68:N70">
+    <cfRule type="containsText" dxfId="84" priority="195" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5485,7 +5477,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:M44">
-    <cfRule type="containsText" dxfId="87" priority="193" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="193" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5502,12 +5494,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:M45">
-    <cfRule type="containsText" dxfId="86" priority="191" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="191" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:M43">
+    <cfRule type="colorScale" priority="190">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:M43">
+    <cfRule type="containsText" dxfId="81" priority="189" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:M42">
-    <cfRule type="colorScale" priority="190">
+    <cfRule type="colorScale" priority="188">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5519,24 +5528,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:M42">
-    <cfRule type="containsText" dxfId="85" priority="189" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43:M43">
-    <cfRule type="colorScale" priority="188">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43:M43">
-    <cfRule type="containsText" dxfId="84" priority="187" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="187" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5553,7 +5545,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46:M46">
-    <cfRule type="containsText" dxfId="83" priority="185" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="185" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5569,8 +5561,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L47:M47">
-    <cfRule type="containsText" dxfId="82" priority="183" operator="containsText" text="*-">
+  <conditionalFormatting sqref="L47:M47 L61:M61 L68:M68">
+    <cfRule type="containsText" dxfId="78" priority="183" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5587,7 +5579,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47">
-    <cfRule type="containsText" dxfId="81" priority="181" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="181" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5604,7 +5596,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L48:M48">
-    <cfRule type="containsText" dxfId="80" priority="179" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="179" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5621,7 +5613,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48">
-    <cfRule type="containsText" dxfId="79" priority="177" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="177" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5638,7 +5630,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49:M49">
-    <cfRule type="containsText" dxfId="78" priority="175" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="175" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5655,7 +5647,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49">
-    <cfRule type="containsText" dxfId="77" priority="173" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="173" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5672,7 +5664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50:M50">
-    <cfRule type="containsText" dxfId="76" priority="171" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="171" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5689,7 +5681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58:M58">
-    <cfRule type="containsText" dxfId="75" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5706,7 +5698,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51:M51">
-    <cfRule type="containsText" dxfId="74" priority="167" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="167" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5723,7 +5715,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="containsText" dxfId="73" priority="165" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="165" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5740,7 +5732,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:M52">
-    <cfRule type="containsText" dxfId="72" priority="163" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="163" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5757,7 +5749,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60">
-    <cfRule type="containsText" dxfId="71" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5774,7 +5766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53:M53">
-    <cfRule type="containsText" dxfId="70" priority="159" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="159" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5791,7 +5783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="containsText" dxfId="69" priority="157" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="157" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5808,7 +5800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
-    <cfRule type="containsText" dxfId="68" priority="147" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="147" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5825,7 +5817,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50">
-    <cfRule type="containsText" dxfId="67" priority="145" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="145" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5842,7 +5834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56:M56">
-    <cfRule type="containsText" dxfId="66" priority="143" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="143" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5859,7 +5851,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:M57">
-    <cfRule type="containsText" dxfId="65" priority="141" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="141" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5876,7 +5868,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57">
-    <cfRule type="containsText" dxfId="64" priority="139" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="139" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5893,7 +5885,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59">
-    <cfRule type="containsText" dxfId="63" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5910,7 +5902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59:M59">
-    <cfRule type="containsText" dxfId="62" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5938,25 +5930,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L61:M62">
-    <cfRule type="colorScale" priority="118">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L61:M62">
-    <cfRule type="containsText" dxfId="61" priority="117" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K56">
-    <cfRule type="containsText" dxfId="60" priority="123" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5973,7 +5948,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L60:M60">
-    <cfRule type="containsText" dxfId="59" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6002,12 +5977,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L54:M54">
-    <cfRule type="containsText" dxfId="58" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61">
-    <cfRule type="containsText" dxfId="57" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6024,7 +5999,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:M55">
-    <cfRule type="containsText" dxfId="56" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6041,12 +6016,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="containsText" dxfId="55" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55">
-    <cfRule type="containsText" dxfId="54" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6063,11 +6038,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M40">
-    <cfRule type="containsText" dxfId="53" priority="105" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K63">
+    <cfRule type="containsText" dxfId="50" priority="105" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6079,7 +6054,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L63:M63">
+  <conditionalFormatting sqref="L69:M69">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6091,17 +6066,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L63:M63">
-    <cfRule type="containsText" dxfId="52" priority="103" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K63">
-    <cfRule type="containsText" dxfId="51" priority="101" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K64">
+  <conditionalFormatting sqref="L69:M69">
+    <cfRule type="containsText" dxfId="49" priority="103" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69">
+    <cfRule type="containsText" dxfId="48" priority="101" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6113,7 +6088,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L64:M64">
+  <conditionalFormatting sqref="L70:M70">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6125,17 +6100,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L64:M64">
-    <cfRule type="containsText" dxfId="50" priority="99" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K64">
-    <cfRule type="containsText" dxfId="49" priority="97" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62">
+  <conditionalFormatting sqref="L70:M70">
+    <cfRule type="containsText" dxfId="47" priority="99" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70">
+    <cfRule type="containsText" dxfId="46" priority="97" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6147,8 +6122,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62">
-    <cfRule type="containsText" dxfId="48" priority="95" operator="containsText" text="*-">
+  <conditionalFormatting sqref="K68">
+    <cfRule type="containsText" dxfId="45" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6165,7 +6140,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N65">
-    <cfRule type="containsText" dxfId="47" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6194,12 +6169,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L65:M65">
-    <cfRule type="containsText" dxfId="46" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K73">
-    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6216,7 +6191,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N66">
-    <cfRule type="containsText" dxfId="44" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6245,12 +6220,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L66:M66">
-    <cfRule type="containsText" dxfId="43" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K66">
-    <cfRule type="containsText" dxfId="42" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6267,7 +6242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N67">
-    <cfRule type="containsText" dxfId="41" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6296,12 +6271,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L67:M67">
-    <cfRule type="containsText" dxfId="40" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K67">
-    <cfRule type="containsText" dxfId="39" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6318,11 +6293,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K65">
-    <cfRule type="containsText" dxfId="38" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N68">
+    <cfRule type="containsText" dxfId="35" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N62">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6334,12 +6309,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N68">
-    <cfRule type="containsText" dxfId="37" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L68:M68">
+  <conditionalFormatting sqref="N62">
+    <cfRule type="containsText" dxfId="34" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L62:M62">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6351,12 +6326,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L68:M68">
-    <cfRule type="containsText" dxfId="36" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N69">
+  <conditionalFormatting sqref="L62:M62">
+    <cfRule type="containsText" dxfId="33" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N63">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6368,12 +6343,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N69">
-    <cfRule type="containsText" dxfId="35" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K69">
+  <conditionalFormatting sqref="N63">
+    <cfRule type="containsText" dxfId="32" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6385,7 +6360,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L69:M69">
+  <conditionalFormatting sqref="L63:M63">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6397,17 +6372,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L69:M69">
-    <cfRule type="containsText" dxfId="34" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K69">
-    <cfRule type="containsText" dxfId="33" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N70">
+  <conditionalFormatting sqref="L63:M63">
+    <cfRule type="containsText" dxfId="31" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63">
+    <cfRule type="containsText" dxfId="30" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N64">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6419,12 +6394,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N70">
-    <cfRule type="containsText" dxfId="32" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K70">
+  <conditionalFormatting sqref="N64">
+    <cfRule type="containsText" dxfId="29" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6436,7 +6411,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L70:M70">
+  <conditionalFormatting sqref="L64:M64">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6448,17 +6423,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L70:M70">
-    <cfRule type="containsText" dxfId="31" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K70">
-    <cfRule type="containsText" dxfId="30" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K68">
+  <conditionalFormatting sqref="L64:M64">
+    <cfRule type="containsText" dxfId="28" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64">
+    <cfRule type="containsText" dxfId="27" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6470,8 +6445,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68">
-    <cfRule type="containsText" dxfId="29" priority="57" operator="containsText" text="*-">
+  <conditionalFormatting sqref="K62">
+    <cfRule type="containsText" dxfId="26" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6488,7 +6463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N71">
-    <cfRule type="containsText" dxfId="28" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6505,7 +6480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L71:M71">
-    <cfRule type="containsText" dxfId="27" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6522,7 +6497,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N73">
-    <cfRule type="containsText" dxfId="26" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6539,7 +6514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L73">
-    <cfRule type="containsText" dxfId="25" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6556,7 +6531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N74">
-    <cfRule type="containsText" dxfId="24" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6585,12 +6560,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L74:M74">
-    <cfRule type="containsText" dxfId="23" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K74">
-    <cfRule type="containsText" dxfId="22" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6607,7 +6582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73">
-    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6624,7 +6599,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K71">
-    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6641,7 +6616,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N72">
-    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6658,7 +6633,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L72:M72">
-    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6675,7 +6650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K72">
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6692,7 +6667,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K77">
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6709,7 +6684,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N75">
-    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6726,7 +6701,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L75:M75">
-    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6743,7 +6718,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N77">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6760,7 +6735,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L77">
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6777,7 +6752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N78">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6806,12 +6781,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L78:M78">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K78">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6828,7 +6803,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M77">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6845,7 +6820,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6862,7 +6837,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6879,7 +6854,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L76:M76">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6896,7 +6871,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K76">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6913,7 +6888,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6928,7 +6903,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CCE2F6-6693-414E-8257-50DAF19254D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1944EB12-809E-437C-A68F-8959909CB73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4220" yWindow="770" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="139">
   <si>
     <t>Year</t>
   </si>
@@ -888,6 +888,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -918,12 +924,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -933,774 +933,6 @@
   </cellStyles>
   <dxfs count="99">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1708,6 +940,774 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1730,9 +1730,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="97" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2004,10 +2004,10 @@
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="16" ySplit="2" topLeftCell="Q60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2025,35 +2025,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="20" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="23" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="2" t="s">
         <v>129</v>
       </c>
@@ -2098,7 +2098,7 @@
       <c r="A3" s="6">
         <v>2004</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -2147,7 +2147,7 @@
       <c r="A4" s="6">
         <v>2004</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -2198,7 +2198,7 @@
       <c r="A5" s="6">
         <v>2005</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -2247,7 +2247,7 @@
       <c r="A6" s="6">
         <v>2005</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -2296,7 +2296,7 @@
       <c r="A7" s="6">
         <v>2006</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2345,7 +2345,7 @@
       <c r="A8" s="6">
         <v>2006</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2392,10 +2392,10 @@
       <c r="A9" s="6">
         <v>2007</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="19" t="s">
         <v>133</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -2441,7 +2441,7 @@
       <c r="A10" s="6">
         <v>2007</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -2490,7 +2490,7 @@
       <c r="A11" s="6">
         <v>2008</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2539,7 +2539,7 @@
       <c r="A12" s="6">
         <v>2009</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -2588,10 +2588,10 @@
       <c r="A13" s="6">
         <v>2009</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="19" t="s">
         <v>134</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -2637,10 +2637,10 @@
       <c r="A14" s="6">
         <v>2009</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="19" t="s">
         <v>134</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -2688,10 +2688,10 @@
       <c r="A15" s="6">
         <v>2009</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="19" t="s">
         <v>134</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -2739,7 +2739,7 @@
       <c r="A16" s="6">
         <v>2010</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -2788,7 +2788,7 @@
       <c r="A17" s="6">
         <v>2011</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -2837,10 +2837,10 @@
       <c r="A18" s="6">
         <v>2012</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -2886,7 +2886,7 @@
       <c r="A19" s="6">
         <v>2012</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2935,7 +2935,7 @@
       <c r="A20" s="6">
         <v>2012</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -2984,7 +2984,7 @@
       <c r="A21" s="6">
         <v>2013</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -3033,7 +3033,7 @@
       <c r="A22" s="6">
         <v>2014</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -3082,7 +3082,7 @@
       <c r="A23" s="6">
         <v>2014</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -3131,7 +3131,7 @@
       <c r="A24" s="6">
         <v>2015</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="18" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -3180,7 +3180,7 @@
       <c r="A25" s="6">
         <v>2015</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -3229,10 +3229,10 @@
       <c r="A26" s="6">
         <v>2015</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="19" t="s">
         <v>136</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -3278,7 +3278,7 @@
       <c r="A27" s="6">
         <v>2016</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -3327,7 +3327,7 @@
       <c r="A28" s="6">
         <v>2016</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -3376,7 +3376,7 @@
       <c r="A29" s="6">
         <v>2017</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -3425,7 +3425,7 @@
       <c r="A30" s="6">
         <v>2017</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -3474,7 +3474,7 @@
       <c r="A31" s="6">
         <v>2017</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -3523,7 +3523,7 @@
       <c r="A32" s="6">
         <v>2017</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -3572,7 +3572,7 @@
       <c r="A33" s="6">
         <v>2018</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -3621,7 +3621,7 @@
       <c r="A34" s="6">
         <v>2018</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -3670,7 +3670,7 @@
       <c r="A35" s="6">
         <v>2018</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -3719,7 +3719,7 @@
       <c r="A36" s="6">
         <v>2018</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="18" t="s">
         <v>57</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -3768,7 +3768,7 @@
       <c r="A37" s="6">
         <v>2018</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="18" t="s">
         <v>57</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -3817,7 +3817,7 @@
       <c r="A38" s="6">
         <v>2018</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="18" t="s">
         <v>57</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -3866,7 +3866,7 @@
       <c r="A39" s="6">
         <v>2019</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -3915,7 +3915,7 @@
       <c r="A40" s="6">
         <v>2019</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -3964,7 +3964,7 @@
       <c r="A41" s="6">
         <v>2019</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -4013,7 +4013,7 @@
       <c r="A42" s="6">
         <v>2019</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -4062,7 +4062,7 @@
       <c r="A43" s="6">
         <v>2019</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -4111,7 +4111,7 @@
       <c r="A44" s="6">
         <v>2019</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -4160,7 +4160,7 @@
       <c r="A45" s="6">
         <v>2020</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="18" t="s">
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -4209,7 +4209,7 @@
       <c r="A46" s="6">
         <v>2020</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="18" t="s">
         <v>96</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -4258,7 +4258,7 @@
       <c r="A47" s="6">
         <v>2020</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="18" t="s">
         <v>96</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -4307,7 +4307,7 @@
       <c r="A48" s="6">
         <v>2020</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="18" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -4356,7 +4356,7 @@
       <c r="A49" s="6">
         <v>2020</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="18" t="s">
         <v>98</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -4405,7 +4405,7 @@
       <c r="A50" s="6">
         <v>2020</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="18" t="s">
         <v>98</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -4454,7 +4454,7 @@
       <c r="A51" s="6">
         <v>2020</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="18" t="s">
         <v>98</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -4505,7 +4505,7 @@
       <c r="A52" s="6">
         <v>2020</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="18" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -4556,7 +4556,7 @@
       <c r="A53" s="6">
         <v>2021</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="18" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -4605,7 +4605,7 @@
       <c r="A54" s="6">
         <v>2021</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="18" t="s">
         <v>82</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -4654,7 +4654,7 @@
       <c r="A55" s="6">
         <v>2021</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="18" t="s">
         <v>82</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -4703,7 +4703,7 @@
       <c r="A56" s="6">
         <v>2021</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="18" t="s">
         <v>82</v>
       </c>
       <c r="C56" s="7" t="s">
@@ -4754,7 +4754,7 @@
       <c r="A57" s="6">
         <v>2021</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="18" t="s">
         <v>82</v>
       </c>
       <c r="C57" s="7" t="s">
@@ -4805,7 +4805,7 @@
       <c r="A58" s="6">
         <v>2021</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="18" t="s">
         <v>82</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -4856,7 +4856,7 @@
       <c r="A59" s="6">
         <v>2021</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="18" t="s">
         <v>83</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -4905,7 +4905,7 @@
       <c r="A60" s="6">
         <v>2021</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="18" t="s">
         <v>83</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -4954,7 +4954,7 @@
       <c r="A61" s="6">
         <v>2021</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="18" t="s">
         <v>83</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -5003,7 +5003,7 @@
       <c r="A62" s="6">
         <v>2021</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="18" t="s">
         <v>83</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -5054,7 +5054,7 @@
       <c r="A63" s="6">
         <v>2021</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="18" t="s">
         <v>83</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -5105,7 +5105,7 @@
       <c r="A64" s="6">
         <v>2021</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="18" t="s">
         <v>83</v>
       </c>
       <c r="C64" s="7" t="s">
@@ -5156,10 +5156,10 @@
       <c r="A65" s="6">
         <v>2022</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B65" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D65" s="7" t="s">
@@ -5205,10 +5205,10 @@
       <c r="A66" s="6">
         <v>2022</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B66" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D66" s="7" t="s">
@@ -5254,10 +5254,10 @@
       <c r="A67" s="6">
         <v>2022</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D67" s="7" t="s">
@@ -5301,7 +5301,7 @@
       <c r="A68" s="6">
         <v>2022</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="18" t="s">
         <v>90</v>
       </c>
       <c r="C68" s="7" t="s">
@@ -5350,7 +5350,7 @@
       <c r="A69" s="6">
         <v>2022</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="18" t="s">
         <v>90</v>
       </c>
       <c r="C69" s="7" t="s">
@@ -5399,7 +5399,7 @@
       <c r="A70" s="6">
         <v>2022</v>
       </c>
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="18" t="s">
         <v>90</v>
       </c>
       <c r="C70" s="7" t="s">
@@ -5446,7 +5446,7 @@
       <c r="A71" s="6">
         <v>2022</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C71" s="7" t="s">
@@ -5495,7 +5495,7 @@
       <c r="A72" s="6">
         <v>2022</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C72" s="7" t="s">
@@ -5544,7 +5544,7 @@
       <c r="A73" s="6">
         <v>2022</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C73" s="7" t="s">
@@ -5591,7 +5591,7 @@
       <c r="A74" s="6">
         <v>2023</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="18" t="s">
         <v>92</v>
       </c>
       <c r="C74" s="7" t="s">
@@ -5640,7 +5640,7 @@
       <c r="A75" s="6">
         <v>2023</v>
       </c>
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="18" t="s">
         <v>92</v>
       </c>
       <c r="C75" s="7" t="s">
@@ -5691,7 +5691,7 @@
       <c r="A76" s="6">
         <v>2023</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="18" t="s">
         <v>92</v>
       </c>
       <c r="C76" s="7" t="s">
@@ -5740,7 +5740,7 @@
       <c r="A77" s="6">
         <v>2023</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="18" t="s">
         <v>92</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -5787,7 +5787,7 @@
       <c r="A78" s="6">
         <v>2023</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C78" s="7" t="s">
@@ -5836,7 +5836,7 @@
       <c r="A79" s="6">
         <v>2023</v>
       </c>
-      <c r="B79" s="28" t="s">
+      <c r="B79" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C79" s="7" t="s">
@@ -5887,7 +5887,7 @@
       <c r="A80" s="6">
         <v>2023</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="B80" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C80" s="7" t="s">
@@ -5936,7 +5936,7 @@
       <c r="A81" s="6">
         <v>2023</v>
       </c>
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C81" s="7" t="s">
@@ -5983,7 +5983,7 @@
       <c r="A82" s="6">
         <v>2024</v>
       </c>
-      <c r="B82" s="28" t="s">
+      <c r="B82" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C82" s="7" t="s">
@@ -6005,7 +6005,9 @@
       <c r="I82" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J82" s="1"/>
+      <c r="J82" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="K82" s="8" t="s">
         <v>9</v>
       </c>
@@ -6030,7 +6032,7 @@
       <c r="A83" s="6">
         <v>2024</v>
       </c>
-      <c r="B83" s="28" t="s">
+      <c r="B83" s="18" t="s">
         <v>103</v>
       </c>
       <c r="C83" s="7"/>
@@ -6050,7 +6052,9 @@
       <c r="I83" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J83" s="1"/>
+      <c r="J83" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="K83" s="8" t="s">
         <v>9</v>
       </c>
@@ -6093,7 +6097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:N43 L42:M42 L3:O14 O42:O43 O71:O73 O45:O64 L16:O40">
-    <cfRule type="containsText" dxfId="95" priority="217" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="217" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6110,7 +6114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47:N47">
-    <cfRule type="containsText" dxfId="94" priority="215" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="215" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6127,7 +6131,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L48:N48">
-    <cfRule type="containsText" dxfId="93" priority="213" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="213" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6144,7 +6148,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46:N46">
-    <cfRule type="containsText" dxfId="92" priority="211" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="211" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6161,7 +6165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:N45">
-    <cfRule type="containsText" dxfId="91" priority="209" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="209" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6178,7 +6182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51:N51">
-    <cfRule type="containsText" dxfId="90" priority="207" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="207" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6195,7 +6199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:N49 M64:N64 M71:N71">
-    <cfRule type="containsText" dxfId="89" priority="205" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="205" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6212,7 +6216,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="containsText" dxfId="88" priority="203" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="203" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6229,7 +6233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M50:N50">
-    <cfRule type="containsText" dxfId="87" priority="201" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="201" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6246,7 +6250,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50">
-    <cfRule type="containsText" dxfId="86" priority="199" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="199" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6263,7 +6267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M52:N52">
-    <cfRule type="containsText" dxfId="85" priority="197" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="197" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6280,7 +6284,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52">
-    <cfRule type="containsText" dxfId="84" priority="195" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="195" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6297,7 +6301,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M53:N53">
-    <cfRule type="containsText" dxfId="83" priority="193" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="193" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6314,7 +6318,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M62:N62">
-    <cfRule type="containsText" dxfId="82" priority="159" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="159" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6331,7 +6335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M54:N54">
-    <cfRule type="containsText" dxfId="81" priority="189" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="189" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6348,7 +6352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L54">
-    <cfRule type="containsText" dxfId="80" priority="187" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="187" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6365,7 +6369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M56:N56">
-    <cfRule type="containsText" dxfId="79" priority="185" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="185" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6382,7 +6386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L61">
-    <cfRule type="containsText" dxfId="78" priority="141" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="141" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6399,7 +6403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M57:N57">
-    <cfRule type="containsText" dxfId="77" priority="181" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="181" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6416,7 +6420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57">
-    <cfRule type="containsText" dxfId="76" priority="179" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="179" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6433,7 +6437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56">
-    <cfRule type="containsText" dxfId="75" priority="169" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="169" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6450,7 +6454,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53">
-    <cfRule type="containsText" dxfId="74" priority="167" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="167" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6467,7 +6471,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M59:N59">
-    <cfRule type="containsText" dxfId="73" priority="165" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="165" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6484,7 +6488,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M60:N60">
-    <cfRule type="containsText" dxfId="72" priority="163" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="163" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6501,7 +6505,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L60">
-    <cfRule type="containsText" dxfId="71" priority="161" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="161" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6518,7 +6522,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63">
-    <cfRule type="containsText" dxfId="70" priority="155" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="155" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6535,7 +6539,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M63:N63">
-    <cfRule type="containsText" dxfId="69" priority="157" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="157" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6564,7 +6568,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59">
-    <cfRule type="containsText" dxfId="68" priority="145" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="145" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6581,7 +6585,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M61:N61">
-    <cfRule type="containsText" dxfId="67" priority="143" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="143" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6610,12 +6614,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M55:N55">
-    <cfRule type="containsText" dxfId="66" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L64">
-    <cfRule type="containsText" dxfId="65" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6632,7 +6636,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M58:N58">
-    <cfRule type="containsText" dxfId="64" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6649,12 +6653,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55">
-    <cfRule type="containsText" dxfId="63" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58">
-    <cfRule type="containsText" dxfId="62" priority="129" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6671,7 +6675,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42">
-    <cfRule type="containsText" dxfId="61" priority="127" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="127" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6700,12 +6704,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="60" priority="125" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="125" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L72">
-    <cfRule type="containsText" dxfId="59" priority="123" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6734,12 +6738,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="58" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L73">
-    <cfRule type="containsText" dxfId="57" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6756,7 +6760,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L71">
-    <cfRule type="containsText" dxfId="56" priority="117" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6773,7 +6777,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O68">
-    <cfRule type="containsText" dxfId="55" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6802,12 +6806,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M68:N68">
-    <cfRule type="containsText" dxfId="54" priority="113" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="113" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L76">
-    <cfRule type="containsText" dxfId="53" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6824,7 +6828,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O69">
-    <cfRule type="containsText" dxfId="52" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6853,12 +6857,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M69:N69">
-    <cfRule type="containsText" dxfId="51" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L69">
-    <cfRule type="containsText" dxfId="50" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6875,7 +6879,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O70">
-    <cfRule type="containsText" dxfId="49" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6904,12 +6908,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M70:N70">
-    <cfRule type="containsText" dxfId="48" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L70">
-    <cfRule type="containsText" dxfId="47" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6926,7 +6930,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L68">
-    <cfRule type="containsText" dxfId="46" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6943,7 +6947,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O65">
-    <cfRule type="containsText" dxfId="45" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6960,7 +6964,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65">
-    <cfRule type="containsText" dxfId="44" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6977,7 +6981,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O66">
-    <cfRule type="containsText" dxfId="43" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7006,12 +7010,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M66:N66">
-    <cfRule type="containsText" dxfId="42" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L66">
-    <cfRule type="containsText" dxfId="41" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7028,7 +7032,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O67">
-    <cfRule type="containsText" dxfId="40" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7057,12 +7061,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M67:N67">
-    <cfRule type="containsText" dxfId="39" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L67">
-    <cfRule type="containsText" dxfId="38" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7079,7 +7083,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L65">
-    <cfRule type="containsText" dxfId="37" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7096,7 +7100,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O74">
-    <cfRule type="containsText" dxfId="36" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7113,7 +7117,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M74:N74">
-    <cfRule type="containsText" dxfId="35" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7130,7 +7134,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O76">
-    <cfRule type="containsText" dxfId="34" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7147,7 +7151,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M76">
-    <cfRule type="containsText" dxfId="33" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7164,7 +7168,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O77">
-    <cfRule type="containsText" dxfId="32" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7193,12 +7197,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M77:N77">
-    <cfRule type="containsText" dxfId="31" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L77">
-    <cfRule type="containsText" dxfId="30" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7215,7 +7219,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76">
-    <cfRule type="containsText" dxfId="29" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7232,7 +7236,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L74">
-    <cfRule type="containsText" dxfId="28" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7249,7 +7253,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O75">
-    <cfRule type="containsText" dxfId="27" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7266,7 +7270,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M75:N75">
-    <cfRule type="containsText" dxfId="26" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7283,7 +7287,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L75">
-    <cfRule type="containsText" dxfId="25" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7300,7 +7304,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="24" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7317,7 +7321,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O78">
-    <cfRule type="containsText" dxfId="23" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7334,7 +7338,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M78:N78">
-    <cfRule type="containsText" dxfId="22" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7351,7 +7355,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O80">
-    <cfRule type="containsText" dxfId="21" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7368,7 +7372,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M80">
-    <cfRule type="containsText" dxfId="20" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7385,7 +7389,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O81">
-    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7414,12 +7418,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M81:N81">
-    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L81">
-    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7436,7 +7440,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N80">
-    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7453,7 +7457,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L78">
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7470,7 +7474,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O79">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7487,7 +7491,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M79:N79">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7504,7 +7508,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L79">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7521,7 +7525,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L62">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7538,7 +7542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41:O41">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7555,7 +7559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:O44">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7572,7 +7576,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L82">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7589,7 +7593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O82">
-    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7606,7 +7610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82">
-    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7623,7 +7627,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N82">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7640,7 +7644,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L83">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7657,7 +7661,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O83">
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7674,7 +7678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7691,7 +7695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N83">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7708,7 +7712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:O15">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1944EB12-809E-437C-A68F-8959909CB73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225272AB-FF7C-4EA4-BBDD-7C081568189E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="770" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -2004,10 +2004,10 @@
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="16" ySplit="2" topLeftCell="Q60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J87" sqref="J87"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="K11:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2525,7 +2525,7 @@
         <v>9</v>
       </c>
       <c r="N11" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>9</v>

--- a/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225272AB-FF7C-4EA4-BBDD-7C081568189E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1C4BE4-3000-484B-A921-5043B5D68854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2004,10 +2004,10 @@
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="16" ySplit="2" topLeftCell="Q45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="K11:P11"/>
+      <selection pane="bottomRight" activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6018,7 +6018,7 @@
         <v>9</v>
       </c>
       <c r="N82" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" s="11" t="s">
         <v>9</v>
@@ -6065,7 +6065,7 @@
         <v>9</v>
       </c>
       <c r="N83" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83" s="11" t="s">
         <v>9</v>

--- a/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1C4BE4-3000-484B-A921-5043B5D68854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A64D3CD-AEFB-412B-943D-AE73B456FC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -931,7 +931,71 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="107">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1730,9 +1794,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="9" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2001,13 +2065,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="16" ySplit="2" topLeftCell="Q45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M81" sqref="M81"/>
+      <selection pane="bottomRight" activeCell="O87" sqref="N87:O87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5342,7 +5406,7 @@
         <v>9</v>
       </c>
       <c r="P68" s="10" t="str">
-        <f t="shared" ref="P68:P83" si="1">IF(OR(AND(L68&gt;1,L68&lt;&gt;"-"),AND(M68&gt;1,M68&lt;&gt;"-"),AND(N68&gt;1,N68&lt;&gt;"-"),AND(O68&gt;1,O68&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="P68:P85" si="1">IF(OR(AND(L68&gt;1,L68&lt;&gt;"-"),AND(M68&gt;1,M68&lt;&gt;"-"),AND(N68&gt;1,N68&lt;&gt;"-"),AND(O68&gt;1,O68&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -6071,6 +6135,52 @@
         <v>9</v>
       </c>
       <c r="P83" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A84" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B84" s="18"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A85" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B85" s="18"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6085,6 +6195,142 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="L43:N43 L42:M42 L3:O14 O42:O43 O71:O73 M64:N64 M71:N71 O45:O64 L16:O40">
+    <cfRule type="colorScale" priority="234">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43:N43 L42:M42 L3:O14 O42:O43 O71:O73 O45:O64 L16:O40">
+    <cfRule type="containsText" dxfId="106" priority="233" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47:N47">
+    <cfRule type="colorScale" priority="232">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47:N47">
+    <cfRule type="containsText" dxfId="105" priority="231" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L48:N48">
+    <cfRule type="colorScale" priority="230">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L48:N48">
+    <cfRule type="containsText" dxfId="104" priority="229" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46:N46">
+    <cfRule type="colorScale" priority="228">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46:N46">
+    <cfRule type="containsText" dxfId="103" priority="227" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L45:N45">
+    <cfRule type="colorScale" priority="226">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L45:N45">
+    <cfRule type="containsText" dxfId="102" priority="225" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51:N51">
+    <cfRule type="colorScale" priority="224">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51:N51">
+    <cfRule type="containsText" dxfId="101" priority="223" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M49:N49">
+    <cfRule type="colorScale" priority="222">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M49:N49 M64:N64 M71:N71">
+    <cfRule type="containsText" dxfId="100" priority="221" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49">
+    <cfRule type="colorScale" priority="220">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49">
+    <cfRule type="containsText" dxfId="99" priority="219" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M50:N50">
     <cfRule type="colorScale" priority="218">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6096,12 +6342,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L43:N43 L42:M42 L3:O14 O42:O43 O71:O73 O45:O64 L16:O40">
+  <conditionalFormatting sqref="M50:N50">
     <cfRule type="containsText" dxfId="98" priority="217" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L47:N47">
+  <conditionalFormatting sqref="L50">
     <cfRule type="colorScale" priority="216">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6113,12 +6359,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L47:N47">
+  <conditionalFormatting sqref="L50">
     <cfRule type="containsText" dxfId="97" priority="215" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L48:N48">
+  <conditionalFormatting sqref="M52:N52">
     <cfRule type="colorScale" priority="214">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6130,12 +6376,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L48:N48">
+  <conditionalFormatting sqref="M52:N52">
     <cfRule type="containsText" dxfId="96" priority="213" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L46:N46">
+  <conditionalFormatting sqref="L52">
     <cfRule type="colorScale" priority="212">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6147,12 +6393,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L46:N46">
+  <conditionalFormatting sqref="L52">
     <cfRule type="containsText" dxfId="95" priority="211" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L45:N45">
+  <conditionalFormatting sqref="M53:N53">
     <cfRule type="colorScale" priority="210">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6164,29 +6410,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L45:N45">
+  <conditionalFormatting sqref="M53:N53">
     <cfRule type="containsText" dxfId="94" priority="209" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51:N51">
-    <cfRule type="colorScale" priority="208">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L51:N51">
-    <cfRule type="containsText" dxfId="93" priority="207" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M49:N49">
+  <conditionalFormatting sqref="M62:N62">
+    <cfRule type="colorScale" priority="176">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M62:N62">
+    <cfRule type="containsText" dxfId="93" priority="175" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M54:N54">
     <cfRule type="colorScale" priority="206">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6198,12 +6444,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M49:N49 M64:N64 M71:N71">
+  <conditionalFormatting sqref="M54:N54">
     <cfRule type="containsText" dxfId="92" priority="205" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L49">
+  <conditionalFormatting sqref="L54">
     <cfRule type="colorScale" priority="204">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6215,12 +6461,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L49">
+  <conditionalFormatting sqref="L54">
     <cfRule type="containsText" dxfId="91" priority="203" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M50:N50">
+  <conditionalFormatting sqref="M56:N56">
     <cfRule type="colorScale" priority="202">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6232,29 +6478,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M50:N50">
+  <conditionalFormatting sqref="M56:N56">
     <cfRule type="containsText" dxfId="90" priority="201" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L50">
-    <cfRule type="colorScale" priority="200">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L50">
-    <cfRule type="containsText" dxfId="89" priority="199" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M52:N52">
+  <conditionalFormatting sqref="L59">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L61">
+    <cfRule type="containsText" dxfId="89" priority="157" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M57:N57">
     <cfRule type="colorScale" priority="198">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6266,12 +6512,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M52:N52">
+  <conditionalFormatting sqref="M57:N57">
     <cfRule type="containsText" dxfId="88" priority="197" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L52">
+  <conditionalFormatting sqref="L57">
     <cfRule type="colorScale" priority="196">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6283,29 +6529,160 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L52">
+  <conditionalFormatting sqref="L57">
     <cfRule type="containsText" dxfId="87" priority="195" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M53:N53">
-    <cfRule type="colorScale" priority="194">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M53:N53">
-    <cfRule type="containsText" dxfId="86" priority="193" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M62:N62">
+  <conditionalFormatting sqref="L56">
+    <cfRule type="colorScale" priority="186">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L56">
+    <cfRule type="containsText" dxfId="86" priority="185" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L53">
+    <cfRule type="colorScale" priority="184">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L53">
+    <cfRule type="containsText" dxfId="85" priority="183" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M59:N59">
+    <cfRule type="colorScale" priority="182">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M59:N59">
+    <cfRule type="containsText" dxfId="84" priority="181" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M60:N60">
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M60:N60">
+    <cfRule type="containsText" dxfId="83" priority="179" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L60">
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L60">
+    <cfRule type="containsText" dxfId="82" priority="177" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L63">
+    <cfRule type="colorScale" priority="172">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L63">
+    <cfRule type="containsText" dxfId="81" priority="171" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M63:N63">
+    <cfRule type="colorScale" priority="174">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M63:N63">
+    <cfRule type="containsText" dxfId="80" priority="173" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L61">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L64">
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L59">
+    <cfRule type="containsText" dxfId="79" priority="161" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M61:N61">
     <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6317,63 +6694,63 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M62:N62">
-    <cfRule type="containsText" dxfId="85" priority="159" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M54:N54">
-    <cfRule type="colorScale" priority="190">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M54:N54">
-    <cfRule type="containsText" dxfId="84" priority="189" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L54">
-    <cfRule type="colorScale" priority="188">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L54">
-    <cfRule type="containsText" dxfId="83" priority="187" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M56:N56">
-    <cfRule type="colorScale" priority="186">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M56:N56">
-    <cfRule type="containsText" dxfId="82" priority="185" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L59">
+  <conditionalFormatting sqref="M61:N61">
+    <cfRule type="containsText" dxfId="78" priority="159" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L55">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M55:N55">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M55:N55">
+    <cfRule type="containsText" dxfId="77" priority="151" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L64">
+    <cfRule type="containsText" dxfId="76" priority="153" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M58:N58">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M58:N58">
+    <cfRule type="containsText" dxfId="75" priority="147" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58">
     <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6385,165 +6762,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L61">
-    <cfRule type="containsText" dxfId="81" priority="141" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M57:N57">
-    <cfRule type="colorScale" priority="182">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M57:N57">
-    <cfRule type="containsText" dxfId="80" priority="181" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L57">
-    <cfRule type="colorScale" priority="180">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L57">
-    <cfRule type="containsText" dxfId="79" priority="179" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L56">
-    <cfRule type="colorScale" priority="170">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L56">
-    <cfRule type="containsText" dxfId="78" priority="169" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L53">
-    <cfRule type="colorScale" priority="168">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L53">
-    <cfRule type="containsText" dxfId="77" priority="167" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M59:N59">
-    <cfRule type="colorScale" priority="166">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M59:N59">
-    <cfRule type="containsText" dxfId="76" priority="165" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M60:N60">
-    <cfRule type="colorScale" priority="164">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M60:N60">
-    <cfRule type="containsText" dxfId="75" priority="163" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L60">
-    <cfRule type="colorScale" priority="162">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L60">
-    <cfRule type="containsText" dxfId="74" priority="161" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L63">
-    <cfRule type="colorScale" priority="156">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L63">
-    <cfRule type="containsText" dxfId="73" priority="155" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M63:N63">
-    <cfRule type="colorScale" priority="158">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M63:N63">
-    <cfRule type="containsText" dxfId="72" priority="157" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L61">
+  <conditionalFormatting sqref="L55">
+    <cfRule type="containsText" dxfId="74" priority="149" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58">
+    <cfRule type="containsText" dxfId="73" priority="145" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N42">
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N42">
+    <cfRule type="containsText" dxfId="72" priority="143" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L72">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M72:N72">
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6555,7 +6813,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L64">
+  <conditionalFormatting sqref="M72:N72">
+    <cfRule type="containsText" dxfId="71" priority="141" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L72">
+    <cfRule type="containsText" dxfId="70" priority="139" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L73">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M73:N73">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6567,29 +6847,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L59">
-    <cfRule type="containsText" dxfId="71" priority="145" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M61:N61">
-    <cfRule type="colorScale" priority="144">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M61:N61">
-    <cfRule type="containsText" dxfId="70" priority="143" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L55">
+  <conditionalFormatting sqref="M73:N73">
+    <cfRule type="containsText" dxfId="69" priority="137" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L73">
+    <cfRule type="containsText" dxfId="68" priority="135" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L71">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6601,29 +6869,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M55:N55">
-    <cfRule type="colorScale" priority="136">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M55:N55">
-    <cfRule type="containsText" dxfId="69" priority="135" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L64">
-    <cfRule type="containsText" dxfId="68" priority="137" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M58:N58">
+  <conditionalFormatting sqref="L71">
+    <cfRule type="containsText" dxfId="67" priority="133" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O68">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6635,12 +6886,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M58:N58">
-    <cfRule type="containsText" dxfId="67" priority="131" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L58">
+  <conditionalFormatting sqref="O68">
+    <cfRule type="containsText" dxfId="66" priority="131" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L76">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M68:N68">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6652,34 +6915,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L55">
-    <cfRule type="containsText" dxfId="66" priority="133" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L58">
+  <conditionalFormatting sqref="M68:N68">
     <cfRule type="containsText" dxfId="65" priority="129" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N42">
-    <cfRule type="colorScale" priority="128">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N42">
-    <cfRule type="containsText" dxfId="64" priority="127" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L72">
+  <conditionalFormatting sqref="L76">
+    <cfRule type="containsText" dxfId="64" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O69">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O69">
+    <cfRule type="containsText" dxfId="63" priority="125" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L69">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M69:N69">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6691,29 +6966,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M72:N72">
-    <cfRule type="colorScale" priority="126">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="63" priority="125" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L72">
+  <conditionalFormatting sqref="M69:N69">
     <cfRule type="containsText" dxfId="62" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L73">
+  <conditionalFormatting sqref="L69">
+    <cfRule type="containsText" dxfId="61" priority="121" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O70">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6725,29 +6988,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M73:N73">
-    <cfRule type="colorScale" priority="122">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="61" priority="121" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L73">
+  <conditionalFormatting sqref="O70">
     <cfRule type="containsText" dxfId="60" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L71">
+  <conditionalFormatting sqref="L70">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M70:N70">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6759,29 +7017,357 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L71">
+  <conditionalFormatting sqref="M70:N70">
     <cfRule type="containsText" dxfId="59" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O68">
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O68">
+  <conditionalFormatting sqref="L70">
     <cfRule type="containsText" dxfId="58" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L76">
+  <conditionalFormatting sqref="L68">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L68">
+    <cfRule type="containsText" dxfId="57" priority="113" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O65">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O65">
+    <cfRule type="containsText" dxfId="56" priority="111" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M65:N65">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M65:N65">
+    <cfRule type="containsText" dxfId="55" priority="109" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O66">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O66">
+    <cfRule type="containsText" dxfId="54" priority="107" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L66">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M66:N66">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M66:N66">
+    <cfRule type="containsText" dxfId="53" priority="105" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L66">
+    <cfRule type="containsText" dxfId="52" priority="103" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O67">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O67">
+    <cfRule type="containsText" dxfId="51" priority="101" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L67">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M67:N67">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M67:N67">
+    <cfRule type="containsText" dxfId="50" priority="99" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L67">
+    <cfRule type="containsText" dxfId="49" priority="97" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L65">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L65">
+    <cfRule type="containsText" dxfId="48" priority="95" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O74">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O74">
+    <cfRule type="containsText" dxfId="47" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M74:N74">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M74:N74">
+    <cfRule type="containsText" dxfId="46" priority="91" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O76">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O76">
+    <cfRule type="containsText" dxfId="45" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M76">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M76">
+    <cfRule type="containsText" dxfId="44" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O77">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O77">
+    <cfRule type="containsText" dxfId="43" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L77">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M77:N77">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M77:N77">
+    <cfRule type="containsText" dxfId="42" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L77">
+    <cfRule type="containsText" dxfId="41" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N76">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N76">
+    <cfRule type="containsText" dxfId="40" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L74">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L74">
+    <cfRule type="containsText" dxfId="39" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O75">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O75">
+    <cfRule type="containsText" dxfId="38" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M75:N75">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6793,369 +7379,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M68:N68">
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M68:N68">
-    <cfRule type="containsText" dxfId="57" priority="113" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L76">
-    <cfRule type="containsText" dxfId="56" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O69">
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O69">
-    <cfRule type="containsText" dxfId="55" priority="109" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L69">
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M69:N69">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M69:N69">
-    <cfRule type="containsText" dxfId="54" priority="107" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L69">
-    <cfRule type="containsText" dxfId="53" priority="105" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O70">
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O70">
-    <cfRule type="containsText" dxfId="52" priority="103" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L70">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M70:N70">
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M70:N70">
-    <cfRule type="containsText" dxfId="51" priority="101" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L70">
-    <cfRule type="containsText" dxfId="50" priority="99" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L68">
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L68">
-    <cfRule type="containsText" dxfId="49" priority="97" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O65">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O65">
-    <cfRule type="containsText" dxfId="48" priority="95" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M65:N65">
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M65:N65">
-    <cfRule type="containsText" dxfId="47" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O66">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O66">
-    <cfRule type="containsText" dxfId="46" priority="91" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L66">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M66:N66">
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M66:N66">
-    <cfRule type="containsText" dxfId="45" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L66">
-    <cfRule type="containsText" dxfId="44" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O67">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O67">
-    <cfRule type="containsText" dxfId="43" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L67">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M67:N67">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M67:N67">
-    <cfRule type="containsText" dxfId="42" priority="83" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L67">
-    <cfRule type="containsText" dxfId="41" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L65">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L65">
-    <cfRule type="containsText" dxfId="40" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O74">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O74">
-    <cfRule type="containsText" dxfId="39" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M74:N74">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M74:N74">
-    <cfRule type="containsText" dxfId="38" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O76">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O76">
-    <cfRule type="containsText" dxfId="37" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M76">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M76">
-    <cfRule type="containsText" dxfId="36" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O77">
+  <conditionalFormatting sqref="M75:N75">
+    <cfRule type="containsText" dxfId="37" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L75">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7167,12 +7396,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O77">
-    <cfRule type="containsText" dxfId="35" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L77">
+  <conditionalFormatting sqref="L75">
+    <cfRule type="containsText" dxfId="36" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L80">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L80">
+    <cfRule type="containsText" dxfId="35" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O78">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O78">
+    <cfRule type="containsText" dxfId="34" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M78:N78">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7184,29 +7447,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M77:N77">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M77:N77">
-    <cfRule type="containsText" dxfId="34" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L77">
+  <conditionalFormatting sqref="M78:N78">
     <cfRule type="containsText" dxfId="33" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N76">
+  <conditionalFormatting sqref="O80">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O80">
+    <cfRule type="containsText" dxfId="32" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M80">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7218,29 +7481,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N76">
-    <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L74">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L74">
-    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O75">
+  <conditionalFormatting sqref="M80">
+    <cfRule type="containsText" dxfId="31" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O81">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7252,12 +7498,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O75">
+  <conditionalFormatting sqref="O81">
     <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M75:N75">
+  <conditionalFormatting sqref="L81">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M81:N81">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7269,29 +7527,85 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M75:N75">
+  <conditionalFormatting sqref="M81:N81">
     <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L75">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L75">
+  <conditionalFormatting sqref="L81">
     <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L80">
+  <conditionalFormatting sqref="N80">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N80">
+    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L78">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L78">
+    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O79">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O79">
+    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M79:N79">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M79:N79">
+    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L79">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7303,80 +7617,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="27" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O78">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O78">
-    <cfRule type="containsText" dxfId="26" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M78:N78">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M78:N78">
-    <cfRule type="containsText" dxfId="25" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O80">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O80">
-    <cfRule type="containsText" dxfId="24" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M80">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M80">
-    <cfRule type="containsText" dxfId="23" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O81">
+  <conditionalFormatting sqref="L79">
+    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L62">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7388,12 +7634,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O81">
+  <conditionalFormatting sqref="L62">
     <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L81">
+  <conditionalFormatting sqref="L41:O41">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L41:O41">
+    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44:O44">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7405,29 +7668,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M81:N81">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M81:N81">
-    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L81">
+  <conditionalFormatting sqref="L44:O44">
     <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N80">
+  <conditionalFormatting sqref="L82">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L82">
+    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O82">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7439,12 +7702,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N80">
-    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L78">
+  <conditionalFormatting sqref="O82">
+    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M82">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7456,29 +7719,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L78">
-    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O79">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O79">
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M79:N79">
+  <conditionalFormatting sqref="M82">
+    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N82">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7490,12 +7736,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M79:N79">
+  <conditionalFormatting sqref="N82">
     <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L79">
+  <conditionalFormatting sqref="L83">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L83">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O83">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7507,12 +7770,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L79">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L62">
+  <conditionalFormatting sqref="O83">
+    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M83">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7524,29 +7787,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L62">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L41:O41">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L41:O41">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L44:O44">
+  <conditionalFormatting sqref="M83">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N83">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7558,12 +7804,63 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L44:O44">
+  <conditionalFormatting sqref="N83">
     <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L82">
+  <conditionalFormatting sqref="L15:O15">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15:O15">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L84">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L84">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O84">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O84">
+    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M84">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7575,63 +7872,63 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L82">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O82">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O82">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M82">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M82">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N82">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N82">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L83">
+  <conditionalFormatting sqref="M84">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N84">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N84">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L85">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L85">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O85">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O85">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M85">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7643,63 +7940,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L83">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O83">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O83">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M83">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M83">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N83">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N83">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15:O15">
+  <conditionalFormatting sqref="M85">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N85">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7711,8 +7957,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15:O15">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="N85">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A64D3CD-AEFB-412B-943D-AE73B456FC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C4B591-5351-4F2D-8B7C-2F15A6E4EF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,9 @@
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$K$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -401,9 +404,6 @@
     <t>High convenience set of tables table of actual coins with photos</t>
   </si>
   <si>
-    <t>Subtype_4</t>
-  </si>
-  <si>
     <t>160.000</t>
   </si>
   <si>
@@ -564,12 +564,6 @@
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol_A</t>
-  </si>
-  <si>
-    <t>Subtype_2#Mint_Symbol_B</t>
-  </si>
-  <si>
     <t>Treaty of Rome</t>
   </si>
   <si>
@@ -586,6 +580,15 @@
   </si>
   <si>
     <t>Luxembourgish Grand-Ducal Dynasty</t>
+  </si>
+  <si>
+    <t>Subtype_4#Special_marks_2</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_5#Special_distinctions_1</t>
   </si>
 </sst>
 </file>
@@ -837,7 +840,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -897,6 +900,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -933,70 +939,6 @@
   </cellStyles>
   <dxfs count="107">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1004,6 +946,70 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1794,9 +1800,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="9" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2068,70 +2074,66 @@
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="16" ySplit="2" topLeftCell="Q45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="16" ySplit="2" topLeftCell="Q36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O87" sqref="N87:O87"/>
+      <selection pane="bottomRight" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="54.08984375" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" customWidth="1"/>
-    <col min="5" max="5" width="22.90625" customWidth="1"/>
-    <col min="6" max="6" width="30.54296875" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" customWidth="1"/>
-    <col min="8" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="15" width="3.81640625" customWidth="1"/>
-    <col min="16" max="16" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" customWidth="1"/>
+    <col min="3" max="7" width="33.6328125" customWidth="1"/>
+    <col min="8" max="11" width="12.6328125" customWidth="1"/>
+    <col min="12" max="15" width="3.6328125" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="22" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="C2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
@@ -2143,7 +2145,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>3</v>
@@ -2155,7 +2157,7 @@
         <v>5</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -2166,16 +2168,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="1" t="s">
@@ -2215,19 +2217,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" s="1">
         <v>54000</v>
@@ -2266,16 +2268,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="8" t="s">
@@ -2315,16 +2317,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="8" t="s">
@@ -2364,16 +2366,16 @@
         <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8" t="s">
@@ -2413,16 +2415,16 @@
         <v>13</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
@@ -2460,16 +2462,16 @@
         <v>18</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8" t="s">
@@ -2509,16 +2511,16 @@
         <v>15</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="8" t="s">
@@ -2558,16 +2560,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="8" t="s">
@@ -2607,16 +2609,16 @@
         <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="1" t="s">
@@ -2656,16 +2658,16 @@
         <v>24</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="1" t="s">
@@ -2705,16 +2707,16 @@
         <v>24</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -2756,22 +2758,22 @@
         <v>24</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>9</v>
@@ -2807,16 +2809,16 @@
         <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="1" t="s">
@@ -2856,16 +2858,16 @@
         <v>30</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="1" t="s">
@@ -2902,19 +2904,19 @@
         <v>2012</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="1" t="s">
@@ -2954,16 +2956,16 @@
         <v>34</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="1" t="s">
@@ -3003,16 +3005,16 @@
         <v>32</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="1" t="s">
@@ -3052,16 +3054,16 @@
         <v>38</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="1" t="s">
@@ -3101,16 +3103,16 @@
         <v>40</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="1" t="s">
@@ -3150,16 +3152,16 @@
         <v>42</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="1" t="s">
@@ -3199,16 +3201,16 @@
         <v>45</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="1" t="s">
@@ -3248,16 +3250,16 @@
         <v>43</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="1" t="s">
@@ -3297,16 +3299,16 @@
         <v>47</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="1" t="s">
@@ -3346,16 +3348,16 @@
         <v>49</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="1" t="s">
@@ -3395,16 +3397,16 @@
         <v>49</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="9" t="s">
@@ -3444,16 +3446,16 @@
         <v>50</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="1" t="s">
@@ -3493,16 +3495,16 @@
         <v>50</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="9" t="s">
@@ -3542,16 +3544,16 @@
         <v>52</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="1" t="s">
@@ -3591,16 +3593,16 @@
         <v>52</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="9" t="s">
@@ -3640,16 +3642,16 @@
         <v>54</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="1" t="s">
@@ -3689,16 +3691,16 @@
         <v>54</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="9" t="s">
@@ -3738,16 +3740,16 @@
         <v>54</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="9" t="s">
@@ -3787,16 +3789,16 @@
         <v>57</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="1" t="s">
@@ -3836,16 +3838,16 @@
         <v>57</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="9" t="s">
@@ -3885,16 +3887,16 @@
         <v>57</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="9" t="s">
@@ -3934,16 +3936,16 @@
         <v>58</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="1" t="s">
@@ -3983,20 +3985,20 @@
         <v>58</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>9</v>
@@ -4032,20 +4034,20 @@
         <v>58</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>9</v>
@@ -4081,16 +4083,16 @@
         <v>60</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="1" t="s">
@@ -4130,16 +4132,16 @@
         <v>60</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="9" t="s">
@@ -4179,20 +4181,20 @@
         <v>60</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>9</v>
@@ -4225,23 +4227,23 @@
         <v>2020</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>9</v>
@@ -4274,19 +4276,19 @@
         <v>2020</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="9" t="s">
@@ -4323,23 +4325,23 @@
         <v>2020</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>9</v>
@@ -4372,23 +4374,23 @@
         <v>2020</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>9</v>
@@ -4421,19 +4423,19 @@
         <v>2020</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="9" t="s">
@@ -4470,23 +4472,23 @@
         <v>2020</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>9</v>
@@ -4519,25 +4521,25 @@
         <v>2020</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I51" s="8" t="s">
         <v>9</v>
@@ -4570,22 +4572,22 @@
         <v>2020</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>12</v>
@@ -4621,23 +4623,23 @@
         <v>2021</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I53" s="8" t="s">
         <v>9</v>
@@ -4670,23 +4672,23 @@
         <v>2021</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>9</v>
@@ -4719,23 +4721,23 @@
         <v>2021</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I55" s="8" t="s">
         <v>9</v>
@@ -4768,25 +4770,25 @@
         <v>2021</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>9</v>
@@ -4819,22 +4821,22 @@
         <v>2021</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H57" s="9" t="s">
         <v>12</v>
@@ -4870,22 +4872,22 @@
         <v>2021</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>12</v>
@@ -4921,23 +4923,23 @@
         <v>2021</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I59" s="8" t="s">
         <v>9</v>
@@ -4970,19 +4972,19 @@
         <v>2021</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="9" t="s">
@@ -5019,23 +5021,23 @@
         <v>2021</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I61" s="8" t="s">
         <v>9</v>
@@ -5068,25 +5070,25 @@
         <v>2021</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I62" s="8" t="s">
         <v>9</v>
@@ -5119,22 +5121,22 @@
         <v>2021</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>12</v>
@@ -5170,22 +5172,22 @@
         <v>2021</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>12</v>
@@ -5221,23 +5223,23 @@
         <v>2022</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I65" s="8" t="s">
         <v>9</v>
@@ -5270,19 +5272,19 @@
         <v>2022</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="8" t="s">
@@ -5319,13 +5321,13 @@
         <v>2022</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>16</v>
@@ -5366,23 +5368,23 @@
         <v>2022</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I68" s="8" t="s">
         <v>9</v>
@@ -5415,19 +5417,19 @@
         <v>2022</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="8" t="s">
@@ -5437,7 +5439,7 @@
         <v>9</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>9</v>
@@ -5464,13 +5466,13 @@
         <v>2022</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>16</v>
@@ -5511,23 +5513,23 @@
         <v>2022</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I71" s="8" t="s">
         <v>9</v>
@@ -5560,19 +5562,19 @@
         <v>2022</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="8" t="s">
@@ -5582,7 +5584,7 @@
         <v>9</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K72" s="8" t="s">
         <v>9</v>
@@ -5609,13 +5611,13 @@
         <v>2022</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>16</v>
@@ -5656,23 +5658,23 @@
         <v>2023</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I74" s="8" t="s">
         <v>9</v>
@@ -5705,22 +5707,22 @@
         <v>2023</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>12</v>
@@ -5756,19 +5758,19 @@
         <v>2023</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="8" t="s">
@@ -5778,7 +5780,7 @@
         <v>9</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K76" s="8" t="s">
         <v>9</v>
@@ -5805,13 +5807,13 @@
         <v>2023</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>16</v>
@@ -5852,23 +5854,23 @@
         <v>2023</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I78" s="8" t="s">
         <v>9</v>
@@ -5901,22 +5903,22 @@
         <v>2023</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H79" s="9" t="s">
         <v>12</v>
@@ -5952,19 +5954,19 @@
         <v>2023</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="8" t="s">
@@ -5974,7 +5976,7 @@
         <v>9</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K80" s="8" t="s">
         <v>9</v>
@@ -6001,13 +6003,13 @@
         <v>2023</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>16</v>
@@ -6048,19 +6050,19 @@
         <v>2024</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="8" t="s">
@@ -6070,7 +6072,7 @@
         <v>9</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K82" s="8" t="s">
         <v>9</v>
@@ -6097,17 +6099,17 @@
         <v>2024</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="8" t="s">
@@ -6117,7 +6119,7 @@
         <v>9</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K83" s="8" t="s">
         <v>9</v>
@@ -6186,9 +6188,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:K2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="C1:G1"/>
@@ -7839,7 +7841,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L84">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7856,7 +7858,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O84">
-    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7873,7 +7875,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M84">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7890,7 +7892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N84">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7907,7 +7909,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L85">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7924,7 +7926,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O85">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7941,7 +7943,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M85">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7958,7 +7960,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N85">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8066,10 +8068,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Luxembourg/#EURO#Luxembourg#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C4B591-5351-4F2D-8B7C-2F15A6E4EF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA57B28-6632-4CBE-B2F6-661CB5FB2630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
             <charset val="204"/>
           </rPr>
           <t>Koninklijke Nederlandse Munt
-(Netherlands mint(Utrecht))</t>
+(Royal Dutch Mint(Utrecht))</t>
         </r>
       </text>
     </comment>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{ED5FF969-8383-4D39-9D3D-5618401E7F86}">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
             <charset val="204"/>
           </rPr>
           <t>Koninklijke Nederlandse Munt
-(Netherlands mint(Utrecht))</t>
+(Royal Dutch Mint(Utrecht))</t>
         </r>
       </text>
     </comment>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="145">
   <si>
     <t>Year</t>
   </si>
@@ -546,9 +546,6 @@
     <t>Obv: Left - mint director symbol St. Servatius Bridge</t>
   </si>
   <si>
-    <t>Obv: Right - mint director symbol  Raven</t>
-  </si>
-  <si>
     <t>Obv: Right - mint main engraving symbol Square</t>
   </si>
   <si>
@@ -589,6 +586,27 @@
   </si>
   <si>
     <t>Subtype_5#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>8.500</t>
+  </si>
+  <si>
+    <t>Obv: Down - mint director symbol Raven</t>
+  </si>
+  <si>
+    <t>Obv: Right - mint director symbol Raven</t>
+  </si>
+  <si>
+    <t>Obv: Up - mint symbol Caduceus</t>
+  </si>
+  <si>
+    <t>25th Anniversary - Accession to the Throne of Grand Duke Henri</t>
+  </si>
+  <si>
+    <t>Coloured</t>
+  </si>
+  <si>
+    <t>75th Anniversary - Schuman Declaration</t>
   </si>
 </sst>
 </file>
@@ -937,7 +955,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="107">
+  <dxfs count="138">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -946,6 +964,254 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2071,13 +2337,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="16" ySplit="2" topLeftCell="Q36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="16" ySplit="2" topLeftCell="Q60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2121,19 +2387,19 @@
         <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
@@ -2168,7 +2434,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>112</v>
@@ -2217,7 +2483,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>112</v>
@@ -2268,7 +2534,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>114</v>
@@ -2317,7 +2583,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>104</v>
@@ -2366,7 +2632,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>114</v>
@@ -2415,7 +2681,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>104</v>
@@ -2462,7 +2728,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>104</v>
@@ -2511,10 +2777,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>16</v>
@@ -2560,7 +2826,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>104</v>
@@ -2609,7 +2875,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>112</v>
@@ -2658,7 +2924,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>112</v>
@@ -2707,7 +2973,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>112</v>
@@ -2758,7 +3024,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>112</v>
@@ -2809,7 +3075,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>112</v>
@@ -2858,7 +3124,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>112</v>
@@ -2904,7 +3170,7 @@
         <v>2012</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>36</v>
@@ -2956,7 +3222,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>112</v>
@@ -3005,7 +3271,7 @@
         <v>32</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>112</v>
@@ -3054,7 +3320,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>112</v>
@@ -3103,7 +3369,7 @@
         <v>40</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>103</v>
@@ -3152,7 +3418,7 @@
         <v>42</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>112</v>
@@ -3201,7 +3467,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>112</v>
@@ -3250,7 +3516,7 @@
         <v>43</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>112</v>
@@ -3299,7 +3565,7 @@
         <v>47</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>112</v>
@@ -3348,7 +3614,7 @@
         <v>49</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>107</v>
@@ -3397,7 +3663,7 @@
         <v>49</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>108</v>
@@ -3446,7 +3712,7 @@
         <v>50</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>119</v>
@@ -3495,7 +3761,7 @@
         <v>50</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>123</v>
@@ -3544,7 +3810,7 @@
         <v>52</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>119</v>
@@ -3593,7 +3859,7 @@
         <v>52</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>123</v>
@@ -3642,7 +3908,7 @@
         <v>54</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>120</v>
@@ -3691,7 +3957,7 @@
         <v>54</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>123</v>
@@ -3740,7 +4006,7 @@
         <v>54</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>123</v>
@@ -3789,7 +4055,7 @@
         <v>57</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>120</v>
@@ -3838,7 +4104,7 @@
         <v>57</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>123</v>
@@ -3887,7 +4153,7 @@
         <v>57</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>123</v>
@@ -3936,7 +4202,7 @@
         <v>58</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>120</v>
@@ -3985,7 +4251,7 @@
         <v>58</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>123</v>
@@ -4034,7 +4300,7 @@
         <v>58</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>123</v>
@@ -4083,7 +4349,7 @@
         <v>60</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>120</v>
@@ -4132,7 +4398,7 @@
         <v>60</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>123</v>
@@ -4181,7 +4447,7 @@
         <v>60</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>123</v>
@@ -4230,7 +4496,7 @@
         <v>95</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>120</v>
@@ -4279,7 +4545,7 @@
         <v>95</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>123</v>
@@ -4328,7 +4594,7 @@
         <v>95</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>123</v>
@@ -4377,7 +4643,7 @@
         <v>97</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>120</v>
@@ -4426,7 +4692,7 @@
         <v>97</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>123</v>
@@ -4475,7 +4741,7 @@
         <v>97</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>123</v>
@@ -4524,7 +4790,7 @@
         <v>97</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>120</v>
@@ -4575,7 +4841,7 @@
         <v>97</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>123</v>
@@ -4626,7 +4892,7 @@
         <v>81</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>120</v>
@@ -4675,7 +4941,7 @@
         <v>81</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>123</v>
@@ -4724,7 +4990,7 @@
         <v>81</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>123</v>
@@ -4773,7 +5039,7 @@
         <v>81</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>120</v>
@@ -4824,7 +5090,7 @@
         <v>81</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>123</v>
@@ -4875,7 +5141,7 @@
         <v>81</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>123</v>
@@ -4926,7 +5192,7 @@
         <v>82</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>120</v>
@@ -4975,7 +5241,7 @@
         <v>82</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>123</v>
@@ -5024,7 +5290,7 @@
         <v>82</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>120</v>
@@ -5073,7 +5339,7 @@
         <v>82</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>120</v>
@@ -5124,7 +5390,7 @@
         <v>82</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>123</v>
@@ -5175,7 +5441,7 @@
         <v>82</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>123</v>
@@ -5226,7 +5492,7 @@
         <v>90</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>103</v>
@@ -5235,7 +5501,7 @@
         <v>16</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="1" t="s">
@@ -5275,7 +5541,7 @@
         <v>90</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>104</v>
@@ -5284,7 +5550,7 @@
         <v>16</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="8" t="s">
@@ -5324,7 +5590,7 @@
         <v>90</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>88</v>
@@ -5371,7 +5637,7 @@
         <v>89</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>103</v>
@@ -5380,7 +5646,7 @@
         <v>16</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="1" t="s">
@@ -5420,7 +5686,7 @@
         <v>89</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>104</v>
@@ -5429,7 +5695,7 @@
         <v>16</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="8" t="s">
@@ -5469,7 +5735,7 @@
         <v>89</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>88</v>
@@ -5516,7 +5782,7 @@
         <v>83</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>103</v>
@@ -5525,7 +5791,7 @@
         <v>16</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="1" t="s">
@@ -5565,7 +5831,7 @@
         <v>83</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>104</v>
@@ -5574,7 +5840,7 @@
         <v>16</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="8" t="s">
@@ -5614,7 +5880,7 @@
         <v>83</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>88</v>
@@ -5661,7 +5927,7 @@
         <v>91</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>103</v>
@@ -5670,7 +5936,7 @@
         <v>16</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="9" t="s">
@@ -5710,7 +5976,7 @@
         <v>91</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>103</v>
@@ -5719,7 +5985,7 @@
         <v>16</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>78</v>
@@ -5761,7 +6027,7 @@
         <v>91</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>105</v>
@@ -5770,7 +6036,7 @@
         <v>16</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="8" t="s">
@@ -5810,7 +6076,7 @@
         <v>91</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>88</v>
@@ -5857,7 +6123,7 @@
         <v>94</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>103</v>
@@ -5866,7 +6132,7 @@
         <v>16</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="9" t="s">
@@ -5906,7 +6172,7 @@
         <v>94</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>103</v>
@@ -5915,7 +6181,7 @@
         <v>16</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>78</v>
@@ -5957,7 +6223,7 @@
         <v>94</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>104</v>
@@ -5966,7 +6232,7 @@
         <v>16</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="8" t="s">
@@ -6006,7 +6272,7 @@
         <v>94</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>88</v>
@@ -6053,7 +6319,7 @@
         <v>101</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>105</v>
@@ -6062,7 +6328,7 @@
         <v>16</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="8" t="s">
@@ -6099,27 +6365,29 @@
         <v>2024</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C83" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="D83" s="7" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G83" s="7"/>
-      <c r="H83" s="8" t="s">
-        <v>9</v>
+      <c r="H83" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="I83" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>92</v>
+      <c r="J83" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="K83" s="8" t="s">
         <v>9</v>
@@ -6130,62 +6398,478 @@
       <c r="M83" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N83" s="11">
-        <v>1</v>
+      <c r="N83" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="O83" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P83" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="P83" s="10"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
-        <v>2025</v>
-      </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O84" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P84" s="10"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
-        <v>2025</v>
-      </c>
-      <c r="B85" s="18"/>
+        <v>2024</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>102</v>
+      </c>
       <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
+      <c r="D85" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="G85" s="7"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="11"/>
+      <c r="H85" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M85" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N85" s="11">
+        <v>1</v>
+      </c>
+      <c r="O85" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="P85" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A86" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G86" s="7"/>
+      <c r="H86" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J86" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O86" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P86" s="10"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A87" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L87" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M87" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N87" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O87" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P87" s="10"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A88" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G88" s="7"/>
+      <c r="H88" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M88" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N88" s="11">
+        <v>1</v>
+      </c>
+      <c r="O88" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P88" s="10" t="str">
+        <f t="shared" ref="P88" si="2">IF(OR(AND(L88&gt;1,L88&lt;&gt;"-"),AND(M88&gt;1,M88&lt;&gt;"-"),AND(N88&gt;1,N88&lt;&gt;"-"),AND(O88&gt;1,O88&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A89" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="H89" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O89" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P89" s="10"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A90" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L90" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M90" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N90" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O90" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P90" s="10"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A91" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G91" s="7"/>
+      <c r="H91" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M91" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N91" s="11">
+        <v>1</v>
+      </c>
+      <c r="O91" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P91" s="10" t="str">
+        <f t="shared" ref="P91" si="3">IF(OR(AND(L91&gt;1,L91&lt;&gt;"-"),AND(M91&gt;1,M91&lt;&gt;"-"),AND(N91&gt;1,N91&lt;&gt;"-"),AND(O91&gt;1,O91&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A92" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G92" s="7"/>
+      <c r="H92" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K92" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O92" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P92" s="10"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A93" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J93" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K93" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L93" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M93" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N93" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O93" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P93" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:K2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -6197,6 +6881,601 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="L43:N43 L42:M42 L3:O14 O42:O43 O71:O73 M64:N64 M71:N71 O45:O64 L16:O40">
+    <cfRule type="colorScale" priority="328">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43:N43 L42:M42 L3:O14 O42:O43 O71:O73 O45:O64 L16:O40">
+    <cfRule type="containsText" dxfId="137" priority="327" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47:N47">
+    <cfRule type="colorScale" priority="326">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47:N47">
+    <cfRule type="containsText" dxfId="136" priority="325" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L48:N48">
+    <cfRule type="colorScale" priority="324">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L48:N48">
+    <cfRule type="containsText" dxfId="135" priority="323" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46:N46">
+    <cfRule type="colorScale" priority="322">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46:N46">
+    <cfRule type="containsText" dxfId="134" priority="321" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L45:N45">
+    <cfRule type="colorScale" priority="320">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L45:N45">
+    <cfRule type="containsText" dxfId="133" priority="319" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51:N51">
+    <cfRule type="colorScale" priority="318">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51:N51">
+    <cfRule type="containsText" dxfId="132" priority="317" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M49:N49">
+    <cfRule type="colorScale" priority="316">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M49:N49 M64:N64 M71:N71">
+    <cfRule type="containsText" dxfId="131" priority="315" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49">
+    <cfRule type="colorScale" priority="314">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49">
+    <cfRule type="containsText" dxfId="130" priority="313" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M50:N50">
+    <cfRule type="colorScale" priority="312">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M50:N50">
+    <cfRule type="containsText" dxfId="129" priority="311" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L50">
+    <cfRule type="colorScale" priority="310">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L50">
+    <cfRule type="containsText" dxfId="128" priority="309" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M52:N52">
+    <cfRule type="colorScale" priority="308">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M52:N52">
+    <cfRule type="containsText" dxfId="127" priority="307" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L52">
+    <cfRule type="colorScale" priority="306">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L52">
+    <cfRule type="containsText" dxfId="126" priority="305" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M53:N53">
+    <cfRule type="colorScale" priority="304">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M53:N53">
+    <cfRule type="containsText" dxfId="125" priority="303" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M62:N62">
+    <cfRule type="colorScale" priority="270">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M62:N62">
+    <cfRule type="containsText" dxfId="124" priority="269" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M54:N54">
+    <cfRule type="colorScale" priority="300">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M54:N54">
+    <cfRule type="containsText" dxfId="123" priority="299" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54">
+    <cfRule type="colorScale" priority="298">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54">
+    <cfRule type="containsText" dxfId="122" priority="297" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M56:N56">
+    <cfRule type="colorScale" priority="296">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M56:N56">
+    <cfRule type="containsText" dxfId="121" priority="295" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L59">
+    <cfRule type="colorScale" priority="256">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L61">
+    <cfRule type="containsText" dxfId="120" priority="251" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M57:N57">
+    <cfRule type="colorScale" priority="292">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M57:N57">
+    <cfRule type="containsText" dxfId="119" priority="291" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L57">
+    <cfRule type="colorScale" priority="290">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L57">
+    <cfRule type="containsText" dxfId="118" priority="289" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L56">
+    <cfRule type="colorScale" priority="280">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L56">
+    <cfRule type="containsText" dxfId="117" priority="279" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L53">
+    <cfRule type="colorScale" priority="278">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L53">
+    <cfRule type="containsText" dxfId="116" priority="277" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M59:N59">
+    <cfRule type="colorScale" priority="276">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M59:N59">
+    <cfRule type="containsText" dxfId="115" priority="275" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M60:N60">
+    <cfRule type="colorScale" priority="274">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M60:N60">
+    <cfRule type="containsText" dxfId="114" priority="273" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L60">
+    <cfRule type="colorScale" priority="272">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L60">
+    <cfRule type="containsText" dxfId="113" priority="271" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L63">
+    <cfRule type="colorScale" priority="266">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L63">
+    <cfRule type="containsText" dxfId="112" priority="265" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M63:N63">
+    <cfRule type="colorScale" priority="268">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M63:N63">
+    <cfRule type="containsText" dxfId="111" priority="267" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L61">
+    <cfRule type="colorScale" priority="252">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L64">
+    <cfRule type="colorScale" priority="248">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L59">
+    <cfRule type="containsText" dxfId="110" priority="255" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M61:N61">
+    <cfRule type="colorScale" priority="254">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M61:N61">
+    <cfRule type="containsText" dxfId="109" priority="253" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L55">
+    <cfRule type="colorScale" priority="244">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M55:N55">
+    <cfRule type="colorScale" priority="246">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M55:N55">
+    <cfRule type="containsText" dxfId="108" priority="245" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L64">
+    <cfRule type="containsText" dxfId="107" priority="247" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M58:N58">
+    <cfRule type="colorScale" priority="242">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M58:N58">
+    <cfRule type="containsText" dxfId="106" priority="241" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58">
+    <cfRule type="colorScale" priority="240">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L55">
+    <cfRule type="containsText" dxfId="105" priority="243" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58">
+    <cfRule type="containsText" dxfId="104" priority="239" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N42">
+    <cfRule type="colorScale" priority="238">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N42">
+    <cfRule type="containsText" dxfId="103" priority="237" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L72">
     <cfRule type="colorScale" priority="234">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6208,12 +7487,41 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L43:N43 L42:M42 L3:O14 O42:O43 O71:O73 O45:O64 L16:O40">
-    <cfRule type="containsText" dxfId="106" priority="233" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L47:N47">
+  <conditionalFormatting sqref="M72:N72">
+    <cfRule type="colorScale" priority="236">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M72:N72">
+    <cfRule type="containsText" dxfId="102" priority="235" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L72">
+    <cfRule type="containsText" dxfId="101" priority="233" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L73">
+    <cfRule type="colorScale" priority="230">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M73:N73">
     <cfRule type="colorScale" priority="232">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6225,29 +7533,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L47:N47">
-    <cfRule type="containsText" dxfId="105" priority="231" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L48:N48">
-    <cfRule type="colorScale" priority="230">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L48:N48">
-    <cfRule type="containsText" dxfId="104" priority="229" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L46:N46">
+  <conditionalFormatting sqref="M73:N73">
+    <cfRule type="containsText" dxfId="100" priority="231" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L73">
+    <cfRule type="containsText" dxfId="99" priority="229" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L71">
     <cfRule type="colorScale" priority="228">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6259,12 +7555,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L46:N46">
-    <cfRule type="containsText" dxfId="103" priority="227" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L45:N45">
+  <conditionalFormatting sqref="L71">
+    <cfRule type="containsText" dxfId="98" priority="227" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O68">
     <cfRule type="colorScale" priority="226">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6276,12 +7572,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L45:N45">
-    <cfRule type="containsText" dxfId="102" priority="225" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L51:N51">
+  <conditionalFormatting sqref="O68">
+    <cfRule type="containsText" dxfId="97" priority="225" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L76">
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M68:N68">
     <cfRule type="colorScale" priority="224">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6293,29 +7601,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51:N51">
-    <cfRule type="containsText" dxfId="101" priority="223" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M49:N49">
-    <cfRule type="colorScale" priority="222">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M49:N49 M64:N64 M71:N71">
-    <cfRule type="containsText" dxfId="100" priority="221" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L49">
+  <conditionalFormatting sqref="M68:N68">
+    <cfRule type="containsText" dxfId="96" priority="223" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L76">
+    <cfRule type="containsText" dxfId="95" priority="179" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O69">
     <cfRule type="colorScale" priority="220">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6327,12 +7623,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L49">
-    <cfRule type="containsText" dxfId="99" priority="219" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M50:N50">
+  <conditionalFormatting sqref="O69">
+    <cfRule type="containsText" dxfId="94" priority="219" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L69">
+    <cfRule type="colorScale" priority="216">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M69:N69">
     <cfRule type="colorScale" priority="218">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6344,29 +7652,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M50:N50">
-    <cfRule type="containsText" dxfId="98" priority="217" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L50">
-    <cfRule type="colorScale" priority="216">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L50">
-    <cfRule type="containsText" dxfId="97" priority="215" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M52:N52">
+  <conditionalFormatting sqref="M69:N69">
+    <cfRule type="containsText" dxfId="93" priority="217" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L69">
+    <cfRule type="containsText" dxfId="92" priority="215" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O70">
     <cfRule type="colorScale" priority="214">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6378,12 +7674,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M52:N52">
-    <cfRule type="containsText" dxfId="96" priority="213" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L52">
+  <conditionalFormatting sqref="O70">
+    <cfRule type="containsText" dxfId="91" priority="213" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L70">
+    <cfRule type="colorScale" priority="210">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M70:N70">
     <cfRule type="colorScale" priority="212">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6395,29 +7703,284 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L52">
-    <cfRule type="containsText" dxfId="95" priority="211" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M53:N53">
-    <cfRule type="colorScale" priority="210">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M53:N53">
-    <cfRule type="containsText" dxfId="94" priority="209" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M62:N62">
+  <conditionalFormatting sqref="M70:N70">
+    <cfRule type="containsText" dxfId="90" priority="211" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L70">
+    <cfRule type="containsText" dxfId="89" priority="209" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L68">
+    <cfRule type="colorScale" priority="208">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L68">
+    <cfRule type="containsText" dxfId="88" priority="207" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O65">
+    <cfRule type="colorScale" priority="206">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O65">
+    <cfRule type="containsText" dxfId="87" priority="205" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M65:N65">
+    <cfRule type="colorScale" priority="204">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M65:N65">
+    <cfRule type="containsText" dxfId="86" priority="203" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O66">
+    <cfRule type="colorScale" priority="202">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O66">
+    <cfRule type="containsText" dxfId="85" priority="201" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L66">
+    <cfRule type="colorScale" priority="198">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M66:N66">
+    <cfRule type="colorScale" priority="200">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M66:N66">
+    <cfRule type="containsText" dxfId="84" priority="199" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L66">
+    <cfRule type="containsText" dxfId="83" priority="197" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O67">
+    <cfRule type="colorScale" priority="196">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O67">
+    <cfRule type="containsText" dxfId="82" priority="195" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L67">
+    <cfRule type="colorScale" priority="192">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M67:N67">
+    <cfRule type="colorScale" priority="194">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M67:N67">
+    <cfRule type="containsText" dxfId="81" priority="193" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L67">
+    <cfRule type="containsText" dxfId="80" priority="191" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L65">
+    <cfRule type="colorScale" priority="190">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L65">
+    <cfRule type="containsText" dxfId="79" priority="189" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O74">
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O74">
+    <cfRule type="containsText" dxfId="78" priority="187" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M74:N74">
+    <cfRule type="colorScale" priority="186">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M74:N74">
+    <cfRule type="containsText" dxfId="77" priority="185" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O76">
+    <cfRule type="colorScale" priority="184">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O76">
+    <cfRule type="containsText" dxfId="76" priority="183" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M76">
+    <cfRule type="colorScale" priority="182">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M76">
+    <cfRule type="containsText" dxfId="75" priority="181" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O77">
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O77">
+    <cfRule type="containsText" dxfId="74" priority="177" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L77">
+    <cfRule type="colorScale" priority="174">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M77:N77">
     <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6429,63 +7992,85 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M62:N62">
-    <cfRule type="containsText" dxfId="93" priority="175" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M54:N54">
-    <cfRule type="colorScale" priority="206">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M54:N54">
-    <cfRule type="containsText" dxfId="92" priority="205" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L54">
-    <cfRule type="colorScale" priority="204">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L54">
-    <cfRule type="containsText" dxfId="91" priority="203" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M56:N56">
-    <cfRule type="colorScale" priority="202">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M56:N56">
-    <cfRule type="containsText" dxfId="90" priority="201" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L59">
+  <conditionalFormatting sqref="M77:N77">
+    <cfRule type="containsText" dxfId="73" priority="175" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L77">
+    <cfRule type="containsText" dxfId="72" priority="173" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N76">
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N76">
+    <cfRule type="containsText" dxfId="71" priority="169" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L74">
+    <cfRule type="colorScale" priority="168">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L74">
+    <cfRule type="containsText" dxfId="70" priority="167" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O75">
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O75">
+    <cfRule type="containsText" dxfId="69" priority="165" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M75:N75">
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M75:N75">
+    <cfRule type="containsText" dxfId="68" priority="163" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L75">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6497,165 +8082,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L61">
-    <cfRule type="containsText" dxfId="89" priority="157" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M57:N57">
-    <cfRule type="colorScale" priority="198">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M57:N57">
-    <cfRule type="containsText" dxfId="88" priority="197" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L57">
-    <cfRule type="colorScale" priority="196">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L57">
-    <cfRule type="containsText" dxfId="87" priority="195" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L56">
-    <cfRule type="colorScale" priority="186">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L56">
-    <cfRule type="containsText" dxfId="86" priority="185" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L53">
-    <cfRule type="colorScale" priority="184">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L53">
-    <cfRule type="containsText" dxfId="85" priority="183" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M59:N59">
-    <cfRule type="colorScale" priority="182">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M59:N59">
-    <cfRule type="containsText" dxfId="84" priority="181" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M60:N60">
-    <cfRule type="colorScale" priority="180">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M60:N60">
-    <cfRule type="containsText" dxfId="83" priority="179" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L60">
-    <cfRule type="colorScale" priority="178">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L60">
-    <cfRule type="containsText" dxfId="82" priority="177" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L63">
-    <cfRule type="colorScale" priority="172">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L63">
-    <cfRule type="containsText" dxfId="81" priority="171" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M63:N63">
-    <cfRule type="colorScale" priority="174">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M63:N63">
-    <cfRule type="containsText" dxfId="80" priority="173" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L61">
+  <conditionalFormatting sqref="L75">
+    <cfRule type="containsText" dxfId="67" priority="161" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L80">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L80">
+    <cfRule type="containsText" dxfId="66" priority="151" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O78">
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O78">
+    <cfRule type="containsText" dxfId="65" priority="159" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M78:N78">
     <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6667,7 +8133,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L64">
+  <conditionalFormatting sqref="M78:N78">
+    <cfRule type="containsText" dxfId="64" priority="157" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O80">
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O80">
+    <cfRule type="containsText" dxfId="63" priority="155" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M80">
     <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6679,29 +8167,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L59">
-    <cfRule type="containsText" dxfId="79" priority="161" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M61:N61">
-    <cfRule type="colorScale" priority="160">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M61:N61">
-    <cfRule type="containsText" dxfId="78" priority="159" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L55">
+  <conditionalFormatting sqref="M80">
+    <cfRule type="containsText" dxfId="62" priority="153" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O81">
     <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6713,29 +8184,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M55:N55">
-    <cfRule type="colorScale" priority="152">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M55:N55">
-    <cfRule type="containsText" dxfId="77" priority="151" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L64">
-    <cfRule type="containsText" dxfId="76" priority="153" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M58:N58">
+  <conditionalFormatting sqref="O81">
+    <cfRule type="containsText" dxfId="61" priority="149" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L81">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M81:N81">
     <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6747,34 +8213,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M58:N58">
-    <cfRule type="containsText" dxfId="75" priority="147" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L58">
-    <cfRule type="colorScale" priority="146">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L55">
-    <cfRule type="containsText" dxfId="74" priority="149" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L58">
-    <cfRule type="containsText" dxfId="73" priority="145" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N42">
+  <conditionalFormatting sqref="M81:N81">
+    <cfRule type="containsText" dxfId="60" priority="147" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L81">
+    <cfRule type="containsText" dxfId="59" priority="145" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N80">
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6786,12 +8235,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N42">
-    <cfRule type="containsText" dxfId="72" priority="143" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L72">
+  <conditionalFormatting sqref="N80">
+    <cfRule type="containsText" dxfId="58" priority="143" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L78">
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L78">
+    <cfRule type="containsText" dxfId="57" priority="141" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O79">
     <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6803,29 +8269,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M72:N72">
-    <cfRule type="colorScale" priority="142">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="71" priority="141" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L72">
-    <cfRule type="containsText" dxfId="70" priority="139" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L73">
+  <conditionalFormatting sqref="O79">
+    <cfRule type="containsText" dxfId="56" priority="139" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M79:N79">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M79:N79">
+    <cfRule type="containsText" dxfId="55" priority="137" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L79">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6837,29 +8303,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M73:N73">
-    <cfRule type="colorScale" priority="138">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="69" priority="137" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L73">
-    <cfRule type="containsText" dxfId="68" priority="135" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L71">
+  <conditionalFormatting sqref="L79">
+    <cfRule type="containsText" dxfId="54" priority="135" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L62">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6871,12 +8320,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L71">
-    <cfRule type="containsText" dxfId="67" priority="133" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O68">
+  <conditionalFormatting sqref="L62">
+    <cfRule type="containsText" dxfId="53" priority="133" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L41:O41">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6888,12 +8337,250 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O68">
-    <cfRule type="containsText" dxfId="66" priority="131" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L76">
+  <conditionalFormatting sqref="L41:O41">
+    <cfRule type="containsText" dxfId="52" priority="131" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44:O44">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44:O44">
+    <cfRule type="containsText" dxfId="51" priority="129" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L82">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L82">
+    <cfRule type="containsText" dxfId="50" priority="123" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O82">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O82">
+    <cfRule type="containsText" dxfId="49" priority="127" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M82:M83">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M82:M83">
+    <cfRule type="containsText" dxfId="48" priority="125" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N82">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N82">
+    <cfRule type="containsText" dxfId="47" priority="121" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L85">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L85">
+    <cfRule type="containsText" dxfId="46" priority="115" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O85">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O85">
+    <cfRule type="containsText" dxfId="45" priority="119" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M85">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M85">
+    <cfRule type="containsText" dxfId="44" priority="117" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N85">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N85">
+    <cfRule type="containsText" dxfId="43" priority="113" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15:O15">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15:O15">
+    <cfRule type="containsText" dxfId="42" priority="111" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L83">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L83">
+    <cfRule type="containsText" dxfId="41" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N83">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N83">
+    <cfRule type="containsText" dxfId="40" priority="91" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O83">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O83">
+    <cfRule type="containsText" dxfId="39" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M84">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M84">
+    <cfRule type="containsText" dxfId="38" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L84">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6905,369 +8592,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M68:N68">
-    <cfRule type="colorScale" priority="130">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M68:N68">
-    <cfRule type="containsText" dxfId="65" priority="129" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L76">
-    <cfRule type="containsText" dxfId="64" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O69">
-    <cfRule type="colorScale" priority="126">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O69">
-    <cfRule type="containsText" dxfId="63" priority="125" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L69">
-    <cfRule type="colorScale" priority="122">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M69:N69">
-    <cfRule type="colorScale" priority="124">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M69:N69">
-    <cfRule type="containsText" dxfId="62" priority="123" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L69">
-    <cfRule type="containsText" dxfId="61" priority="121" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O70">
-    <cfRule type="colorScale" priority="120">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O70">
-    <cfRule type="containsText" dxfId="60" priority="119" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L70">
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M70:N70">
-    <cfRule type="colorScale" priority="118">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M70:N70">
-    <cfRule type="containsText" dxfId="59" priority="117" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L70">
-    <cfRule type="containsText" dxfId="58" priority="115" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L68">
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L68">
-    <cfRule type="containsText" dxfId="57" priority="113" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O65">
-    <cfRule type="colorScale" priority="112">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O65">
-    <cfRule type="containsText" dxfId="56" priority="111" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M65:N65">
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M65:N65">
-    <cfRule type="containsText" dxfId="55" priority="109" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O66">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O66">
-    <cfRule type="containsText" dxfId="54" priority="107" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L66">
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M66:N66">
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M66:N66">
-    <cfRule type="containsText" dxfId="53" priority="105" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L66">
-    <cfRule type="containsText" dxfId="52" priority="103" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O67">
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O67">
-    <cfRule type="containsText" dxfId="51" priority="101" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L67">
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M67:N67">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M67:N67">
-    <cfRule type="containsText" dxfId="50" priority="99" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L67">
-    <cfRule type="containsText" dxfId="49" priority="97" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L65">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L65">
-    <cfRule type="containsText" dxfId="48" priority="95" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O74">
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O74">
-    <cfRule type="containsText" dxfId="47" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M74:N74">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M74:N74">
-    <cfRule type="containsText" dxfId="46" priority="91" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O76">
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O76">
-    <cfRule type="containsText" dxfId="45" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M76">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M76">
-    <cfRule type="containsText" dxfId="44" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O77">
+  <conditionalFormatting sqref="L84">
+    <cfRule type="containsText" dxfId="37" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N84">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7279,12 +8609,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O77">
-    <cfRule type="containsText" dxfId="43" priority="83" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L77">
+  <conditionalFormatting sqref="N84">
+    <cfRule type="containsText" dxfId="36" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O84">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O84">
+    <cfRule type="containsText" dxfId="35" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M86">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7296,29 +8643,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M77:N77">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M77:N77">
-    <cfRule type="containsText" dxfId="42" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L77">
-    <cfRule type="containsText" dxfId="41" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N76">
+  <conditionalFormatting sqref="M86">
+    <cfRule type="containsText" dxfId="34" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L86">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L86">
+    <cfRule type="containsText" dxfId="33" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N86">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7330,12 +8677,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N76">
-    <cfRule type="containsText" dxfId="40" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L74">
+  <conditionalFormatting sqref="N86">
+    <cfRule type="containsText" dxfId="32" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O86">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7347,12 +8694,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L74">
-    <cfRule type="containsText" dxfId="39" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O75">
+  <conditionalFormatting sqref="O86">
+    <cfRule type="containsText" dxfId="31" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M87">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7364,12 +8711,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O75">
-    <cfRule type="containsText" dxfId="38" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M75:N75">
+  <conditionalFormatting sqref="M87">
+    <cfRule type="containsText" dxfId="30" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L87">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7381,12 +8728,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M75:N75">
-    <cfRule type="containsText" dxfId="37" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L75">
+  <conditionalFormatting sqref="L87">
+    <cfRule type="containsText" dxfId="29" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N87">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7398,12 +8745,80 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L75">
-    <cfRule type="containsText" dxfId="36" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L80">
+  <conditionalFormatting sqref="N87">
+    <cfRule type="containsText" dxfId="28" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O87">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O87">
+    <cfRule type="containsText" dxfId="27" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L88">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L88">
+    <cfRule type="containsText" dxfId="26" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O88">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O88">
+    <cfRule type="containsText" dxfId="25" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M88">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M88">
+    <cfRule type="containsText" dxfId="24" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N88">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7415,80 +8830,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="35" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O78">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O78">
-    <cfRule type="containsText" dxfId="34" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M78:N78">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M78:N78">
-    <cfRule type="containsText" dxfId="33" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O80">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O80">
-    <cfRule type="containsText" dxfId="32" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M80">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M80">
-    <cfRule type="containsText" dxfId="31" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O81">
+  <conditionalFormatting sqref="N88">
+    <cfRule type="containsText" dxfId="23" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M89">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7500,12 +8847,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O81">
-    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L81">
+  <conditionalFormatting sqref="M89">
+    <cfRule type="containsText" dxfId="22" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L89">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L89">
+    <cfRule type="containsText" dxfId="21" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N89">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7517,29 +8881,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M81:N81">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M81:N81">
-    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L81">
-    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N80">
+  <conditionalFormatting sqref="N89">
+    <cfRule type="containsText" dxfId="20" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O89">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7551,12 +8898,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N80">
-    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L78">
+  <conditionalFormatting sqref="O89">
+    <cfRule type="containsText" dxfId="19" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M90">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7568,12 +8915,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L78">
-    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O79">
+  <conditionalFormatting sqref="M90">
+    <cfRule type="containsText" dxfId="18" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L90">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7585,12 +8932,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O79">
-    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M79:N79">
+  <conditionalFormatting sqref="L90">
+    <cfRule type="containsText" dxfId="17" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N90">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7602,12 +8949,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M79:N79">
-    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L79">
+  <conditionalFormatting sqref="N90">
+    <cfRule type="containsText" dxfId="16" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O90">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7619,131 +8966,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L79">
-    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L62">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L62">
-    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L41:O41">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L41:O41">
-    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L44:O44">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L44:O44">
-    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L82">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L82">
-    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O82">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O82">
-    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M82">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M82">
-    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N82">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N82">
-    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L83">
+  <conditionalFormatting sqref="O90">
+    <cfRule type="containsText" dxfId="15" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L91">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L91">
+    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O91">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O91">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M91">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7755,63 +9017,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L83">
-    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O83">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O83">
-    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M83">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M83">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N83">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N83">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15:O15">
+  <conditionalFormatting sqref="M91">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N91">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7823,12 +9034,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15:O15">
+  <conditionalFormatting sqref="N91">
     <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L84">
+  <conditionalFormatting sqref="M92">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M92">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L92">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L92">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N92">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7840,46 +9085,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L84">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O84">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O84">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M84">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M84">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N84">
+  <conditionalFormatting sqref="N92">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O92">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7891,12 +9102,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N84">
+  <conditionalFormatting sqref="O92">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L85">
+  <conditionalFormatting sqref="M93">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M93">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L93">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L93">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N93">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7908,46 +9153,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L85">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O85">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O85">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M85">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M85">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N85">
+  <conditionalFormatting sqref="N93">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O93">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7959,7 +9170,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N85">
+  <conditionalFormatting sqref="O93">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
@@ -7975,7 +9186,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
